--- a/sriramModel-nelson-melancholic-patientID_55-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_55-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.002852149208488</v>
+        <v>2.034376489148086</v>
       </c>
       <c r="C2">
-        <v>2.006263969827065</v>
+        <v>2.009779137045901</v>
       </c>
       <c r="D2">
-        <v>2.000815632043424</v>
+        <v>2.031379294409672</v>
       </c>
       <c r="E2">
-        <v>2.043691865643122</v>
+        <v>2.003572647146435</v>
       </c>
       <c r="F2">
-        <v>1.999741960062393</v>
+        <v>2.019538940725145</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.005749651172548</v>
+        <v>2.06883296445904</v>
       </c>
       <c r="C3">
-        <v>2.012603039917606</v>
+        <v>2.019626819109404</v>
       </c>
       <c r="D3">
-        <v>2.001661029801774</v>
+        <v>2.062666591334039</v>
       </c>
       <c r="E3">
-        <v>2.087278973466796</v>
+        <v>2.007203693749566</v>
       </c>
       <c r="F3">
-        <v>1.999493910915159</v>
+        <v>2.039258640477677</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.00869318521842</v>
+        <v>2.103340041671377</v>
       </c>
       <c r="C4">
-        <v>2.019013258016245</v>
+        <v>2.029541709456229</v>
       </c>
       <c r="D4">
-        <v>2.002536895932869</v>
+        <v>2.093844722265957</v>
       </c>
       <c r="E4">
-        <v>2.130761309670224</v>
+        <v>2.010894206365441</v>
       </c>
       <c r="F4">
-        <v>1.999255111085548</v>
+        <v>2.059143056058391</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.011683514278086</v>
+        <v>2.137870959614633</v>
       </c>
       <c r="C5">
-        <v>2.025491075089232</v>
+        <v>2.039522695727862</v>
       </c>
       <c r="D5">
-        <v>2.003443980644559</v>
+        <v>2.124898058189554</v>
       </c>
       <c r="E5">
-        <v>2.174138888878288</v>
+        <v>2.014645354866613</v>
       </c>
       <c r="F5">
-        <v>1.999024870845038</v>
+        <v>2.079177377825476</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.014721487563682</v>
+        <v>2.172401327454197</v>
       </c>
       <c r="C6">
-        <v>2.032033323246309</v>
+        <v>2.049568874692214</v>
       </c>
       <c r="D6">
-        <v>2.004383082915418</v>
+        <v>2.155812344038082</v>
       </c>
       <c r="E6">
-        <v>2.217411748287825</v>
+        <v>2.018458418597425</v>
       </c>
       <c r="F6">
-        <v>1.998802550605376</v>
+        <v>2.099347947432979</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.017808044783136</v>
+        <v>2.206909095139107</v>
       </c>
       <c r="C7">
-        <v>2.038637198884975</v>
+        <v>2.059679544543555</v>
       </c>
       <c r="D7">
-        <v>2.00535505532901</v>
+        <v>2.1865747223908</v>
       </c>
       <c r="E7">
-        <v>2.260579946300392</v>
+        <v>2.022334787709534</v>
       </c>
       <c r="F7">
-        <v>1.998587558886491</v>
+        <v>2.11964223230442</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.020944215385277</v>
+        <v>2.241374326180566</v>
       </c>
       <c r="C8">
-        <v>2.045300253316458</v>
+        <v>2.06985418593726</v>
       </c>
       <c r="D8">
-        <v>2.006360805341124</v>
+        <v>2.2171736441318</v>
       </c>
       <c r="E8">
-        <v>2.303643561159129</v>
+        <v>2.026275965935283</v>
       </c>
       <c r="F8">
-        <v>1.998379353390597</v>
+        <v>2.140048739590309</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.024131120827558</v>
+        <v>2.27577907397106</v>
       </c>
       <c r="C9">
-        <v>2.052020379613459</v>
+        <v>2.080092451132004</v>
       </c>
       <c r="D9">
-        <v>2.007401295565512</v>
+        <v>2.24759878475857</v>
       </c>
       <c r="E9">
-        <v>2.346602689863709</v>
+        <v>2.030283574278481</v>
       </c>
       <c r="F9">
-        <v>1.998177439766359</v>
+        <v>2.160556977956155</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.027369977497474</v>
+        <v>2.310107284974933</v>
       </c>
       <c r="C10">
-        <v>2.058795800949657</v>
+        <v>2.090394153093361</v>
       </c>
       <c r="D10">
-        <v>2.008477546311501</v>
+        <v>2.277841009962141</v>
       </c>
       <c r="E10">
-        <v>2.38945744705717</v>
+        <v>2.034359354651706</v>
       </c>
       <c r="F10">
-        <v>1.997981371328554</v>
+        <v>2.181157409768262</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.030662099784933</v>
+        <v>2.344344674702366</v>
       </c>
       <c r="C11">
-        <v>2.065625060689714</v>
+        <v>2.100759253835948</v>
       </c>
       <c r="D11">
-        <v>2.009590637710595</v>
+        <v>2.307892330948495</v>
       </c>
       <c r="E11">
-        <v>2.432207964019196</v>
+        <v>2.038505173818549</v>
       </c>
       <c r="F11">
-        <v>1.997790748709581</v>
+        <v>2.20184140462337</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.034008902641363</v>
+        <v>2.378478607442587</v>
       </c>
       <c r="C12">
-        <v>2.072507013707817</v>
+        <v>2.111187854562487</v>
       </c>
       <c r="D12">
-        <v>2.010741711745937</v>
+        <v>2.337745851486341</v>
       </c>
       <c r="E12">
-        <v>2.474854387547064</v>
+        <v>2.042723028350637</v>
       </c>
       <c r="F12">
-        <v>1.997605219874337</v>
+        <v>2.222601202035594</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.037411903794325</v>
+        <v>2.412497993570252</v>
       </c>
       <c r="C13">
-        <v>2.079440818294413</v>
+        <v>2.121680185888211</v>
       </c>
       <c r="D13">
-        <v>2.011931975164499</v>
+        <v>2.367395720562493</v>
       </c>
       <c r="E13">
-        <v>2.517396878888066</v>
+        <v>2.047015050061779</v>
       </c>
       <c r="F13">
-        <v>1.997424480371488</v>
+        <v>2.243429873642007</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.040872730171694</v>
+        <v>2.446393193399219</v>
       </c>
       <c r="C14">
-        <v>2.086425927437548</v>
+        <v>2.132236597320758</v>
       </c>
       <c r="D14">
-        <v>2.013162702389037</v>
+        <v>2.396837091385683</v>
       </c>
       <c r="E14">
-        <v>2.559835612819577</v>
+        <v>2.051383511708335</v>
       </c>
       <c r="F14">
-        <v>1.997248273741685</v>
+        <v>2.264321286895953</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.044393122355105</v>
+        <v>2.480155930217721</v>
       </c>
       <c r="C15">
-        <v>2.093462088844369</v>
+        <v>2.142857547052517</v>
       </c>
       <c r="D15">
-        <v>2.014435238425367</v>
+        <v>2.426066083253417</v>
       </c>
       <c r="E15">
-        <v>2.602170776776938</v>
+        <v>2.055830833290698</v>
       </c>
       <c r="F15">
-        <v>1.997076391997597</v>
+        <v>2.28527005593155</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.047974938569771</v>
+        <v>2.51377919677182</v>
       </c>
       <c r="C16">
-        <v>2.100549332283258</v>
+        <v>2.153543594546186</v>
       </c>
       <c r="D16">
-        <v>2.015751002077613</v>
+        <v>2.455079738766427</v>
       </c>
       <c r="E16">
-        <v>2.644402569942732</v>
+        <v>2.060359589545112</v>
       </c>
       <c r="F16">
-        <v>1.996908676327015</v>
+        <v>2.306271519738431</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.051620159833453</v>
+        <v>2.547257167730878</v>
       </c>
       <c r="C17">
-        <v>2.107687966719721</v>
+        <v>2.164295393317329</v>
       </c>
       <c r="D17">
-        <v>2.017111489509693</v>
+        <v>2.483876009849801</v>
       </c>
       <c r="E17">
-        <v>2.686531202346067</v>
+        <v>2.064972517531166</v>
       </c>
       <c r="F17">
-        <v>1.99674501768793</v>
+        <v>2.327321716735706</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.055330896528352</v>
+        <v>2.580585176565942</v>
       </c>
       <c r="C18">
-        <v>2.114878578659454</v>
+        <v>2.175113683007368</v>
       </c>
       <c r="D18">
-        <v>2.01851827813758</v>
+        <v>2.512453710969394</v>
       </c>
       <c r="E18">
-        <v>2.728556894035791</v>
+        <v>2.069672525153246</v>
       </c>
       <c r="F18">
-        <v>1.996585358123342</v>
+        <v>2.348417359110547</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.059109395630055</v>
+        <v>2.613759582771342</v>
       </c>
       <c r="C19">
-        <v>2.12212203096124</v>
+        <v>2.185999281755065</v>
       </c>
       <c r="D19">
-        <v>2.019973031529437</v>
+        <v>2.540812492374916</v>
       </c>
       <c r="E19">
-        <v>2.770479874240809</v>
+        <v>2.074462700456909</v>
       </c>
       <c r="F19">
-        <v>1.996429691539602</v>
+        <v>2.369555807628322</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.062958048092504</v>
+        <v>2.64677770870289</v>
       </c>
       <c r="C20">
-        <v>2.129419461421847</v>
+        <v>2.196953079447804</v>
       </c>
       <c r="D20">
-        <v>2.021477503721449</v>
+        <v>2.568952824669009</v>
       </c>
       <c r="E20">
-        <v>2.81230038062183</v>
+        <v>2.079346323175551</v>
       </c>
       <c r="F20">
-        <v>1.996278065406005</v>
+        <v>2.390735049618804</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.066879396974811</v>
+        <v>2.679637798753742</v>
       </c>
       <c r="C21">
-        <v>2.136772282234007</v>
+        <v>2.207976030547275</v>
       </c>
       <c r="D21">
-        <v>2.023033539961723</v>
+        <v>2.59687595089516</v>
       </c>
       <c r="E21">
-        <v>2.854018658516285</v>
+        <v>2.084326875672563</v>
       </c>
       <c r="F21">
-        <v>1.996130582511443</v>
+        <v>2.411953681098698</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.070876146633043</v>
+        <v>2.712338972882418</v>
       </c>
       <c r="C22">
-        <v>2.144182181154195</v>
+        <v>2.219069148700923</v>
       </c>
       <c r="D22">
-        <v>2.02464308777736</v>
+        <v>2.624583888402051</v>
       </c>
       <c r="E22">
-        <v>2.895634960198818</v>
+        <v>2.089408055766683</v>
       </c>
       <c r="F22">
-        <v>1.995987402710861</v>
+        <v>2.433210888163269</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.074951173606361</v>
+        <v>2.744881171991431</v>
       </c>
       <c r="C23">
-        <v>2.151651124312741</v>
+        <v>2.230233500322359</v>
       </c>
       <c r="D23">
-        <v>2.026308202095374</v>
+        <v>2.652079399976487</v>
       </c>
       <c r="E23">
-        <v>2.937149544161912</v>
+        <v>2.094593790018582</v>
       </c>
       <c r="F23">
-        <v>1.995848745075175</v>
+        <v>2.454506435235126</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.079107537651138</v>
+        <v>2.777265103332663</v>
       </c>
       <c r="C24">
-        <v>2.159181360520736</v>
+        <v>2.241470199560619</v>
       </c>
       <c r="D24">
-        <v>2.028031050642662</v>
+        <v>2.679365989175714</v>
       </c>
       <c r="E24">
-        <v>2.978562674447868</v>
+        <v>2.099888249351962</v>
       </c>
       <c r="F24">
-        <v>1.99571489011985</v>
+        <v>2.475840652358739</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.083348498805988</v>
+        <v>2.809492198023423</v>
       </c>
       <c r="C25">
-        <v>2.166775427153414</v>
+        <v>2.25278040448219</v>
       </c>
       <c r="D25">
-        <v>2.029813921077761</v>
+        <v>2.706447884535581</v>
       </c>
       <c r="E25">
-        <v>3.019874619972748</v>
+        <v>2.105295865789898</v>
       </c>
       <c r="F25">
-        <v>1.995586182465806</v>
+        <v>2.497214414215443</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.087677510929272</v>
+        <v>2.841564574380255</v>
       </c>
       <c r="C26">
-        <v>2.174436158330685</v>
+        <v>2.26416530972817</v>
       </c>
       <c r="D26">
-        <v>2.031659227037712</v>
+        <v>2.733330028704248</v>
       </c>
       <c r="E26">
-        <v>3.061085653884737</v>
+        <v>2.110821350938168</v>
       </c>
       <c r="F26">
-        <v>1.995463033519684</v>
+        <v>2.518629169822465</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.092098258762161</v>
+        <v>2.873484999544177</v>
       </c>
       <c r="C27">
-        <v>2.182166689343871</v>
+        <v>2.275626145592824</v>
       </c>
       <c r="D27">
-        <v>2.033569517295436</v>
+        <v>2.760018071068967</v>
       </c>
       <c r="E27">
-        <v>3.102196052944381</v>
+        <v>2.116469715851353</v>
       </c>
       <c r="F27">
-        <v>1.99534592528511</v>
+        <v>2.540086921141198</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.096614663804645</v>
+        <v>2.905256854172759</v>
       </c>
       <c r="C28">
-        <v>2.189970477354343</v>
+        <v>2.287164170491259</v>
       </c>
       <c r="D28">
-        <v>2.035547486350843</v>
+        <v>2.786518364278307</v>
       </c>
       <c r="E28">
-        <v>3.14320609694036</v>
+        <v>2.122246293415233</v>
       </c>
       <c r="F28">
-        <v>1.99523541356725</v>
+        <v>2.561590228598469</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.101230912068113</v>
+        <v>2.936884130118828</v>
       </c>
       <c r="C29">
-        <v>2.197851291449141</v>
+        <v>2.29878066995047</v>
       </c>
       <c r="D29">
-        <v>2.037595979167426</v>
+        <v>2.812837962833672</v>
       </c>
       <c r="E29">
-        <v>3.184116068105868</v>
+        <v>2.12815676304617</v>
       </c>
       <c r="F29">
-        <v>1.995132131698244</v>
+        <v>2.583142211171598</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.105951464324985</v>
+        <v>2.968371360011476</v>
       </c>
       <c r="C30">
-        <v>2.205813264059756</v>
+        <v>2.310476950680923</v>
       </c>
       <c r="D30">
-        <v>2.039718010192022</v>
+        <v>2.838984622809843</v>
       </c>
       <c r="E30">
-        <v>3.22492625055263</v>
+        <v>2.134207177429298</v>
       </c>
       <c r="F30">
-        <v>1.995036795221019</v>
+        <v>2.60474655618538</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.110781086977243</v>
+        <v>2.99972365843455</v>
       </c>
       <c r="C31">
-        <v>2.21386085894027</v>
+        <v>2.322254339012434</v>
       </c>
       <c r="D31">
-        <v>2.041916761634319</v>
+        <v>2.864966812706415</v>
       </c>
       <c r="E31">
-        <v>3.265636929744739</v>
+        <v>2.140403992612152</v>
       </c>
       <c r="F31">
-        <v>1.994950206425998</v>
+        <v>2.626407537234769</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.11572486949312</v>
+        <v>3.030946655890365</v>
       </c>
       <c r="C32">
-        <v>2.221998952380177</v>
+        <v>2.3341141769246</v>
       </c>
       <c r="D32">
-        <v>2.044195613832367</v>
+        <v>2.890793720293501</v>
       </c>
       <c r="E32">
-        <v>3.306248391981506</v>
+        <v>2.146754099467639</v>
       </c>
       <c r="F32">
-        <v>1.994873258935753</v>
+        <v>2.648130025659365</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.120788254251977</v>
+        <v>3.062046517377878</v>
       </c>
       <c r="C33">
-        <v>2.230232791288191</v>
+        <v>2.346057819659587</v>
       </c>
       <c r="D33">
-        <v>2.046558139030999</v>
+        <v>2.916475261691324</v>
       </c>
       <c r="E33">
-        <v>3.346760923901568</v>
+        <v>2.15326486165522</v>
       </c>
       <c r="F33">
-        <v>1.994806944149308</v>
+        <v>2.669919526561649</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.125977069032595</v>
+        <v>3.09302991751263</v>
       </c>
       <c r="C34">
-        <v>2.238568087825492</v>
+        <v>2.358086634179619</v>
       </c>
       <c r="D34">
-        <v>2.049008138117106</v>
+        <v>2.942022103514278</v>
       </c>
       <c r="E34">
-        <v>3.38717481199288</v>
+        <v>2.159944155071907</v>
       </c>
       <c r="F34">
-        <v>1.99475235709369</v>
+        <v>2.691782202615172</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.131297553075877</v>
+        <v>3.123904032631006</v>
       </c>
       <c r="C35">
-        <v>2.247010982321507</v>
+        <v>2.370201995096551</v>
       </c>
       <c r="D35">
-        <v>2.051549636361541</v>
+        <v>2.967445682127121</v>
       </c>
       <c r="E35">
-        <v>3.427490342156817</v>
+        <v>2.166800412628205</v>
       </c>
       <c r="F35">
-        <v>1.994710702379956</v>
+        <v>2.713724907374732</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.136756412228427</v>
+        <v>3.154676552346838</v>
       </c>
       <c r="C36">
-        <v>2.255568147818045</v>
+        <v>2.382405285048813</v>
       </c>
       <c r="D36">
-        <v>2.054186921387152</v>
+        <v>2.992758224573175</v>
       </c>
       <c r="E36">
-        <v>3.467707799264999</v>
+        <v>2.173842672445716</v>
       </c>
       <c r="F36">
-        <v>1.994683302461007</v>
+        <v>2.735755230312801</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.142360836523244</v>
+        <v>3.185355659976921</v>
       </c>
       <c r="C37">
-        <v>2.264246755758256</v>
+        <v>2.394697890537564</v>
       </c>
       <c r="D37">
-        <v>2.056924544456501</v>
+        <v>3.017972785246883</v>
       </c>
       <c r="E37">
-        <v>3.507827466743325</v>
+        <v>2.181080633232094</v>
       </c>
       <c r="F37">
-        <v>1.99467160523854</v>
+        <v>2.757881549504008</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.148118576866609</v>
+        <v>3.215950061876433</v>
       </c>
       <c r="C38">
-        <v>2.273054605750934</v>
+        <v>2.407081202367408</v>
       </c>
       <c r="D38">
-        <v>2.059767360702922</v>
+        <v>3.043103281877706</v>
       </c>
       <c r="E38">
-        <v>3.547849626167551</v>
+        <v>2.188524715737831</v>
       </c>
       <c r="F38">
-        <v>1.994677191808993</v>
+        <v>2.78011308928679</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.154037972297556</v>
+        <v>3.24646897882528</v>
       </c>
       <c r="C39">
-        <v>2.282000081272911</v>
+        <v>2.419556612695622</v>
       </c>
       <c r="D39">
-        <v>2.062720534662833</v>
+        <v>3.068164532669024</v>
       </c>
       <c r="E39">
-        <v>3.587774556905878</v>
+        <v>2.196186129986084</v>
       </c>
       <c r="F39">
-        <v>1.994701787070588</v>
+        <v>2.802459987393622</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.160128026242214</v>
+        <v>3.276922167245249</v>
       </c>
       <c r="C40">
-        <v>2.291092324221581</v>
+        <v>2.432125515324108</v>
       </c>
       <c r="D40">
-        <v>2.065789587332009</v>
+        <v>3.093172310807195</v>
       </c>
       <c r="E40">
-        <v>3.627602535757553</v>
+        <v>2.204076951665837</v>
       </c>
       <c r="F40">
-        <v>1.994747269766077</v>
+        <v>2.824933385982254</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.166398473665908</v>
+        <v>3.307319942522375</v>
       </c>
       <c r="C41">
-        <v>2.300341170909321</v>
+        <v>2.444789303806833</v>
       </c>
       <c r="D41">
-        <v>2.068980403897203</v>
+        <v>3.118143402963973</v>
       </c>
       <c r="E41">
-        <v>3.667333836612932</v>
+        <v>2.212210202720306</v>
       </c>
       <c r="F41">
-        <v>1.994815682535416</v>
+        <v>2.847545525783605</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.172859835039258</v>
+        <v>3.337673180772617</v>
       </c>
       <c r="C42">
-        <v>2.309757387058403</v>
+        <v>2.457549371087507</v>
       </c>
       <c r="D42">
-        <v>2.072299290970468</v>
+        <v>3.143095669255757</v>
       </c>
       <c r="E42">
-        <v>3.706968730145806</v>
+        <v>2.220599950185145</v>
       </c>
       <c r="F42">
-        <v>1.994909245635762</v>
+        <v>2.870309844882138</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.179523545317734</v>
+        <v>3.367993371213225</v>
       </c>
       <c r="C43">
-        <v>2.319352579339761</v>
+        <v>2.470407109474242</v>
       </c>
       <c r="D43">
-        <v>2.075752986950136</v>
+        <v>3.168048119596107</v>
       </c>
       <c r="E43">
-        <v>3.746507483527935</v>
+        <v>2.229261409609085</v>
       </c>
       <c r="F43">
-        <v>1.99503037015841</v>
+        <v>2.893241123351699</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.186401992828329</v>
+        <v>3.398292622664584</v>
       </c>
       <c r="C44">
-        <v>2.3291395086116</v>
+        <v>2.483363908981451</v>
       </c>
       <c r="D44">
-        <v>2.07934873075671</v>
+        <v>3.193021005001027</v>
       </c>
       <c r="E44">
-        <v>3.785950360156324</v>
+        <v>2.238211064210554</v>
       </c>
       <c r="F44">
-        <v>1.995181671245177</v>
+        <v>2.916355631732774</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.193508692082141</v>
+        <v>3.4285837161618</v>
       </c>
       <c r="C45">
-        <v>2.339131970438177</v>
+        <v>2.496421158870402</v>
       </c>
       <c r="D45">
-        <v>2.083094277333238</v>
+        <v>3.218035909987057</v>
       </c>
       <c r="E45">
-        <v>3.8252976193922</v>
+        <v>2.247466793482996</v>
       </c>
       <c r="F45">
-        <v>1.995365985913434</v>
+        <v>2.939671293300584</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.200858357327749</v>
+        <v>3.458880144530082</v>
       </c>
       <c r="C46">
-        <v>2.349345147473317</v>
+        <v>2.509580245831666</v>
       </c>
       <c r="D46">
-        <v>2.086997979081658</v>
+        <v>3.243115856002683</v>
       </c>
       <c r="E46">
-        <v>3.864549516348853</v>
+        <v>2.257048024461911</v>
       </c>
       <c r="F46">
-        <v>1.995586390795472</v>
+        <v>2.963207892748791</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.208467069934208</v>
+        <v>3.489196144514061</v>
       </c>
       <c r="C47">
-        <v>2.359795658406476</v>
+        <v>2.522842555733953</v>
       </c>
       <c r="D47">
-        <v>2.091068809619644</v>
+        <v>3.268285440895976</v>
       </c>
       <c r="E47">
-        <v>3.903706301681819</v>
+        <v>2.266975899562257</v>
       </c>
       <c r="F47">
-        <v>1.995846219675155</v>
+        <v>2.986987321548857</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.21635246809936</v>
+        <v>3.519546780694545</v>
       </c>
       <c r="C48">
-        <v>2.370501809529838</v>
+        <v>2.536209472509293</v>
       </c>
       <c r="D48">
-        <v>2.095316460241754</v>
+        <v>3.293570976229106</v>
       </c>
       <c r="E48">
-        <v>3.942768221405328</v>
+        <v>2.277273463014458</v>
       </c>
       <c r="F48">
-        <v>1.996149087005521</v>
+        <v>3.011033852648271</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.224533843870071</v>
+        <v>3.549947969598501</v>
       </c>
       <c r="C49">
-        <v>2.381483784260047</v>
+        <v>2.549682379626015</v>
       </c>
       <c r="D49">
-        <v>2.099751375495509</v>
+        <v>3.31900062626358</v>
       </c>
       <c r="E49">
-        <v>3.981735516713149</v>
+        <v>2.287965874100616</v>
       </c>
       <c r="F49">
-        <v>1.996498912017038</v>
+        <v>3.03537442631236</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.233032497940892</v>
+        <v>3.580416582391806</v>
       </c>
       <c r="C50">
-        <v>2.392763865642982</v>
+        <v>2.563262659975701</v>
       </c>
       <c r="D50">
-        <v>2.104384867828215</v>
+        <v>3.344604614168553</v>
       </c>
       <c r="E50">
-        <v>4.020608423859263</v>
+        <v>2.299080633936351</v>
       </c>
       <c r="F50">
-        <v>1.996899942432167</v>
+        <v>3.060039076629826</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.241871824878535</v>
+        <v>3.610970498624062</v>
       </c>
       <c r="C51">
-        <v>2.404366782007024</v>
+        <v>2.576951696714405</v>
       </c>
       <c r="D51">
-        <v>2.109229170046059</v>
+        <v>3.370415415664296</v>
       </c>
       <c r="E51">
-        <v>4.059387174027185</v>
+        <v>2.310647861923734</v>
       </c>
       <c r="F51">
-        <v>1.997356785880761</v>
+        <v>3.085061365453204</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.251077752238345</v>
+        <v>3.641628693253796</v>
       </c>
       <c r="C52">
-        <v>2.416320075095235</v>
+        <v>2.590750874427622</v>
       </c>
       <c r="D52">
-        <v>2.114297571446276</v>
+        <v>3.396467958703646</v>
       </c>
       <c r="E52">
-        <v>4.098071993226589</v>
+        <v>2.322700591479329</v>
       </c>
       <c r="F52">
-        <v>1.997874443385893</v>
+        <v>3.110478847661502</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.260678900132498</v>
+        <v>3.672411355086852</v>
       </c>
       <c r="C53">
-        <v>2.428654433399865</v>
+        <v>2.604661579107966</v>
       </c>
       <c r="D53">
-        <v>2.119604494958393</v>
+        <v>3.422799903347981</v>
       </c>
       <c r="E53">
-        <v>4.136663102210513</v>
+        <v>2.335275107704144</v>
       </c>
       <c r="F53">
-        <v>1.998458342094018</v>
+        <v>3.136333737110126</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.270707142591606</v>
+        <v>3.703339942302823</v>
       </c>
       <c r="C54">
-        <v>2.441404300275375</v>
+        <v>2.61868520030147</v>
       </c>
       <c r="D54">
-        <v>2.125165657899425</v>
+        <v>3.449451914681435</v>
       </c>
       <c r="E54">
-        <v>4.175160716428558</v>
+        <v>2.348411309379745</v>
       </c>
       <c r="F54">
-        <v>1.999114378091497</v>
+        <v>3.162673637292794</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.281197966930431</v>
+        <v>3.734437358826417</v>
       </c>
       <c r="C55">
-        <v>2.454608452244871</v>
+        <v>2.632823131025754</v>
       </c>
       <c r="D55">
-        <v>2.130998151691325</v>
+        <v>3.476467940483588</v>
       </c>
       <c r="E55">
-        <v>4.213565045981325</v>
+        <v>2.362153136315191</v>
       </c>
       <c r="F55">
-        <v>1.999848964934616</v>
+        <v>3.189552352708358</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.292190979133928</v>
+        <v>3.765728027795828</v>
       </c>
       <c r="C56">
-        <v>2.4683105198943</v>
+        <v>2.647076769905157</v>
       </c>
       <c r="D56">
-        <v>2.137120702891867</v>
+        <v>3.503895571340031</v>
       </c>
       <c r="E56">
-        <v>4.251876295591544</v>
+        <v>2.376549029924816</v>
       </c>
       <c r="F56">
-        <v>2.000669078051497</v>
+        <v>3.217030827041508</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.303730500251217</v>
+        <v>3.797238064116883</v>
       </c>
       <c r="C57">
-        <v>2.482560110678336</v>
+        <v>2.661447521569654</v>
       </c>
       <c r="D57">
-        <v>2.14355380593677</v>
+        <v>3.531786404734484</v>
       </c>
       <c r="E57">
-        <v>4.290094664612154</v>
+        <v>2.391652437246483</v>
       </c>
       <c r="F57">
-        <v>2.001582313750375</v>
+        <v>3.245178510965972</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.315866216543852</v>
+        <v>3.828995434310132</v>
       </c>
       <c r="C58">
-        <v>2.497413700869579</v>
+        <v>2.675936798506219</v>
       </c>
       <c r="D58">
-        <v>2.150319932762409</v>
+        <v>3.560196404289467</v>
       </c>
       <c r="E58">
-        <v>4.328220347044291</v>
+        <v>2.407522359506111</v>
       </c>
       <c r="F58">
-        <v>2.002596959767155</v>
+        <v>3.274074733689706</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.328654028028625</v>
+        <v>3.86103006737977</v>
       </c>
       <c r="C59">
-        <v>2.512935835536418</v>
+        <v>2.690546022004457</v>
       </c>
       <c r="D59">
-        <v>2.157443763984726</v>
+        <v>3.589186320553809</v>
       </c>
       <c r="E59">
-        <v>4.366253531570575</v>
+        <v>2.424223930971691</v>
       </c>
       <c r="F59">
-        <v>2.003722062069698</v>
+        <v>3.303810335132225</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.342156954463232</v>
+        <v>3.893374111905546</v>
       </c>
       <c r="C60">
-        <v>2.529200579874025</v>
+        <v>2.705276623620422</v>
       </c>
       <c r="D60">
-        <v>2.164952478434845</v>
+        <v>3.618822113628986</v>
       </c>
       <c r="E60">
-        <v>4.404194401595467</v>
+        <v>2.441829058737732</v>
       </c>
       <c r="F60">
-        <v>2.004967508569435</v>
+        <v>3.334489610844353</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.356446189264083</v>
+        <v>3.926062103296301</v>
       </c>
       <c r="C61">
-        <v>2.546293291914606</v>
+        <v>2.720130046614895</v>
       </c>
       <c r="D61">
-        <v>2.172876035360247</v>
+        <v>3.649175329993129</v>
       </c>
       <c r="E61">
-        <v>4.442043135329316</v>
+        <v>2.460417038324947</v>
       </c>
       <c r="F61">
-        <v>2.006344132710855</v>
+        <v>3.366232630010507</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.37160228983571</v>
+        <v>3.959131180826343</v>
       </c>
       <c r="C62">
-        <v>2.564312749303256</v>
+        <v>2.735107747081488</v>
       </c>
       <c r="D62">
-        <v>2.181247533166591</v>
+        <v>3.680323499615796</v>
       </c>
       <c r="E62">
-        <v>4.479799905865612</v>
+        <v>2.480075155715959</v>
       </c>
       <c r="F62">
-        <v>2.007863814257064</v>
+        <v>3.399177911556258</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.387716501614813</v>
+        <v>3.992621303322037</v>
       </c>
       <c r="C63">
-        <v>2.583373671708684</v>
+        <v>2.750211195559337</v>
       </c>
       <c r="D63">
-        <v>2.190103639967341</v>
+        <v>3.712350434045294</v>
       </c>
       <c r="E63">
-        <v>4.517464881279357</v>
+        <v>2.500899235198121</v>
       </c>
       <c r="F63">
-        <v>2.009539598492579</v>
+        <v>3.433485425296983</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.404892291472432</v>
+        <v>4.026575491112795</v>
       </c>
       <c r="C64">
-        <v>2.603609690593508</v>
+        <v>2.765441878183092</v>
       </c>
       <c r="D64">
-        <v>2.199485012449598</v>
+        <v>3.745346432920122</v>
       </c>
       <c r="E64">
-        <v>4.55503822473045</v>
+        <v>2.522994062477043</v>
       </c>
       <c r="F64">
-        <v>2.011385856130856</v>
+        <v>3.469339856342239</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.423246922236077</v>
+        <v>4.061040079239766</v>
       </c>
       <c r="C65">
-        <v>2.62517680202439</v>
+        <v>2.780801298046487</v>
       </c>
       <c r="D65">
-        <v>2.209436786509253</v>
+        <v>3.779408217213704</v>
       </c>
       <c r="E65">
-        <v>4.592520094603477</v>
+        <v>2.546473576245049</v>
       </c>
       <c r="F65">
-        <v>2.013418439177673</v>
+        <v>3.506953974138962</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.442913076837412</v>
+        <v>4.096064972363158</v>
       </c>
       <c r="C66">
-        <v>2.648257231123853</v>
+        <v>2.796290976446709</v>
       </c>
       <c r="D66">
-        <v>2.220009205060667</v>
+        <v>3.814638663851608</v>
       </c>
       <c r="E66">
-        <v>4.629910644637294</v>
+        <v>2.571460719045969</v>
       </c>
       <c r="F66">
-        <v>2.015654855075663</v>
+        <v>3.546571753450101</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.464040363310131</v>
+        <v>4.131703897017085</v>
       </c>
       <c r="C67">
-        <v>2.673063630888237</v>
+        <v>2.811912454015922</v>
       </c>
       <c r="D67">
-        <v>2.231258235272236</v>
+        <v>3.851146151325678</v>
       </c>
       <c r="E67">
-        <v>4.667210024069942</v>
+        <v>2.598086603028478</v>
       </c>
       <c r="F67">
-        <v>2.018114520406694</v>
+        <v>3.588470591433408</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.486796698690661</v>
+        <v>4.168014643768831</v>
       </c>
       <c r="C68">
-        <v>2.699843118916561</v>
+        <v>2.827667291781517</v>
       </c>
       <c r="D68">
-        <v>2.243246199643371</v>
+        <v>3.889043351699206</v>
       </c>
       <c r="E68">
-        <v>4.70441837779912</v>
+        <v>2.626489179434352</v>
       </c>
       <c r="F68">
-        <v>2.020819008744757</v>
+        <v>3.632961882737267</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.51136865415659</v>
+        <v>4.20505927640305</v>
       </c>
       <c r="C69">
-        <v>2.728880643166157</v>
+        <v>2.843557072321179</v>
       </c>
       <c r="D69">
-        <v>2.256042665359695</v>
+        <v>3.928445318657487</v>
       </c>
       <c r="E69">
-        <v>4.741535846553036</v>
+        <v>2.65681090240341</v>
       </c>
       <c r="F69">
-        <v>2.0237923091935</v>
+        <v>3.680386900328517</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.537960803985247</v>
+        <v>4.242904300232558</v>
       </c>
       <c r="C70">
-        <v>2.760499511180217</v>
+        <v>2.859583400114838</v>
       </c>
       <c r="D70">
-        <v>2.269725205810449</v>
+        <v>3.969466732317969</v>
       </c>
       <c r="E70">
-        <v>4.778562567063152</v>
+        <v>2.689195134774393</v>
       </c>
       <c r="F70">
-        <v>2.027061239213359</v>
+        <v>3.731107732538822</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.566793193842874</v>
+        <v>4.281620754762359</v>
       </c>
       <c r="C71">
-        <v>2.795057791325485</v>
+        <v>2.875747903124249</v>
       </c>
       <c r="D71">
-        <v>2.284380182491258</v>
+        <v>4.012218171634629</v>
       </c>
       <c r="E71">
-        <v>4.815498672242762</v>
+        <v>2.723781193673696</v>
       </c>
       <c r="F71">
-        <v>2.03065584725471</v>
+        <v>3.785489532611169</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.598096082813166</v>
+        <v>4.321284214526051</v>
       </c>
       <c r="C72">
-        <v>2.83293663212226</v>
+        <v>2.892052232154864</v>
       </c>
       <c r="D72">
-        <v>2.300103691485232</v>
+        <v>4.056801343233542</v>
       </c>
       <c r="E72">
-        <v>4.852344291382092</v>
+        <v>2.760698010607088</v>
       </c>
       <c r="F72">
-        <v>2.034609806828697</v>
+        <v>3.843871658914054</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.632100088711034</v>
+        <v>4.361974643294497</v>
       </c>
       <c r="C73">
-        <v>2.874516564559937</v>
+        <v>2.908498062501396</v>
       </c>
       <c r="D73">
-        <v>2.317002183071765</v>
+        <v>4.103303325472963</v>
       </c>
       <c r="E73">
-        <v>4.889099550340807</v>
+        <v>2.800056555153778</v>
       </c>
       <c r="F73">
-        <v>2.038961097542733</v>
+        <v>3.906528400713267</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.669022799851323</v>
+        <v>4.403776025103996</v>
       </c>
       <c r="C74">
-        <v>2.920139750783078</v>
+        <v>2.925087092770513</v>
       </c>
       <c r="D74">
-        <v>2.335193196555471</v>
+        <v>4.151790083822623</v>
       </c>
       <c r="E74">
-        <v>4.925764571746321</v>
+        <v>2.841941546189493</v>
       </c>
       <c r="F74">
-        <v>2.043752571839666</v>
+        <v>3.973624051912716</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.709050242691622</v>
+        <v>4.446775756722191</v>
       </c>
       <c r="C75">
-        <v>2.970058098547649</v>
+        <v>2.941821045975537</v>
       </c>
       <c r="D75">
-        <v>2.354805343748319</v>
+        <v>4.202299753912849</v>
       </c>
       <c r="E75">
-        <v>4.962339475193324</v>
+        <v>2.886403162340082</v>
       </c>
       <c r="F75">
-        <v>2.049032836481732</v>
+        <v>4.04517214982415</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.752315221455299</v>
+        <v>4.491063696662494</v>
       </c>
       <c r="C76">
-        <v>3.024377167542154</v>
+        <v>2.958701668269813</v>
       </c>
       <c r="D76">
-        <v>2.375977992899012</v>
+        <v>4.254836316039898</v>
       </c>
       <c r="E76">
-        <v>4.998824377453603</v>
+        <v>2.933450133551083</v>
       </c>
       <c r="F76">
-        <v>2.054857139950674</v>
+        <v>4.121013796706261</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.798875935026157</v>
+        <v>4.536730990738906</v>
       </c>
       <c r="C77">
-        <v>3.083013430854821</v>
+        <v>2.975730728698511</v>
       </c>
       <c r="D77">
-        <v>2.398860157783662</v>
+        <v>4.309364962035343</v>
       </c>
       <c r="E77">
-        <v>5.035219392679959</v>
+        <v>2.983045493939254</v>
       </c>
       <c r="F77">
-        <v>2.06128840263758</v>
+        <v>4.20082717165847</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.848699742341388</v>
+        <v>4.583867877633232</v>
       </c>
       <c r="C78">
-        <v>3.145685120157784</v>
+        <v>2.992910018636061</v>
       </c>
       <c r="D78">
-        <v>2.423607914259738</v>
+        <v>4.365809584745027</v>
       </c>
       <c r="E78">
-        <v>5.071524632613656</v>
+        <v>3.035105782421835</v>
       </c>
       <c r="F78">
-        <v>2.06839846288677</v>
+        <v>4.284165282788454</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.901657098000332</v>
+        <v>4.632561550045738</v>
       </c>
       <c r="C79">
-        <v>3.211946383790524</v>
+        <v>3.010241349071479</v>
       </c>
       <c r="D79">
-        <v>2.450380297758504</v>
+        <v>4.424053271662363</v>
       </c>
       <c r="E79">
-        <v>5.107740206792696</v>
+        <v>3.089504414336694</v>
       </c>
       <c r="F79">
-        <v>2.07626952377923</v>
+        <v>4.370514497378884</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.95752913257046</v>
+        <v>4.682893326163736</v>
       </c>
       <c r="C80">
-        <v>3.281254595044765</v>
+        <v>3.027726551504112</v>
       </c>
       <c r="D80">
-        <v>2.479333480360598</v>
+        <v>4.483941986998492</v>
       </c>
       <c r="E80">
-        <v>5.143866222759645</v>
+        <v>3.146078813599086</v>
       </c>
       <c r="F80">
-        <v>2.08499577120022</v>
+        <v>4.45935318363389</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.016027792326791</v>
+        <v>4.734935152810677</v>
       </c>
       <c r="C81">
-        <v>3.353046139414122</v>
+        <v>3.045367472705484</v>
       </c>
       <c r="D81">
-        <v>2.510612538876966</v>
+        <v>4.545291220529538</v>
       </c>
       <c r="E81">
-        <v>5.179902786266596</v>
+        <v>3.204640331944361</v>
       </c>
       <c r="F81">
-        <v>2.094685138649074</v>
+        <v>4.55019717745174</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.076823922724272</v>
+        <v>4.7887457080768</v>
       </c>
       <c r="C82">
-        <v>3.42679719008007</v>
+        <v>3.063165975658467</v>
       </c>
       <c r="D82">
-        <v>2.544341283498248</v>
+        <v>4.607894700502492</v>
       </c>
       <c r="E82">
-        <v>5.215850001479927</v>
+        <v>3.264985396136067</v>
       </c>
       <c r="F82">
-        <v>2.105461158720352</v>
+        <v>4.642625919981493</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.139576598412821</v>
+        <v>4.844366363778543</v>
       </c>
       <c r="C83">
-        <v>3.502058537896742</v>
+        <v>3.081123933509117</v>
       </c>
       <c r="D83">
-        <v>2.58061082515269</v>
+        <v>4.671533910412839</v>
       </c>
       <c r="E83">
-        <v>5.251707971182099</v>
+        <v>3.326906126505301</v>
       </c>
       <c r="F83">
-        <v>2.117464760548891</v>
+        <v>4.73629124073911</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.203957584878513</v>
+        <v>4.901817201240563</v>
       </c>
       <c r="C84">
-        <v>3.578466622283676</v>
+        <v>3.099243229004654</v>
       </c>
       <c r="D84">
-        <v>2.619468211427245</v>
+        <v>4.735987432558733</v>
       </c>
       <c r="E84">
-        <v>5.287476796969197</v>
+        <v>3.390199609478379</v>
       </c>
       <c r="F84">
-        <v>2.130855775648981</v>
+        <v>4.830914358752286</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.269668470045793</v>
+        <v>4.961093473024437</v>
       </c>
       <c r="C85">
-        <v>3.655738816922362</v>
+        <v>3.11752574870064</v>
       </c>
       <c r="D85">
-        <v>2.660907058467338</v>
+        <v>4.801039028821702</v>
       </c>
       <c r="E85">
-        <v>5.323156579445507</v>
+        <v>3.454674816829489</v>
       </c>
       <c r="F85">
-        <v>2.145813688043486</v>
+        <v>4.926276732963095</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.336449510933503</v>
+        <v>5.022162958526452</v>
       </c>
       <c r="C86">
-        <v>3.733661164068086</v>
+        <v>3.135973379510505</v>
       </c>
       <c r="D86">
-        <v>2.704862324986323</v>
+        <v>4.866483960414474</v>
       </c>
       <c r="E86">
-        <v>5.358747418416653</v>
+        <v>3.520157127413189</v>
       </c>
       <c r="F86">
-        <v>2.162536707153448</v>
+        <v>5.022208950348944</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.404082058764691</v>
+        <v>5.084964654795153</v>
       </c>
       <c r="C87">
-        <v>3.812074231946164</v>
+        <v>3.154588004592027</v>
       </c>
       <c r="D87">
-        <v>2.751210875866235</v>
+        <v>4.932133322724134</v>
       </c>
       <c r="E87">
-        <v>5.394249413073123</v>
+        <v>3.586490676762399</v>
       </c>
       <c r="F87">
-        <v>2.181238546829642</v>
+        <v>5.118580050181213</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3.47238656287675</v>
+        <v>5.149408940893982</v>
       </c>
       <c r="C88">
-        <v>3.890860143132562</v>
+        <v>3.1733714954344</v>
       </c>
       <c r="D88">
-        <v>2.799778789380731</v>
+        <v>4.997816419685561</v>
       </c>
       <c r="E88">
-        <v>5.42966266217189</v>
+        <v>3.653538958285246</v>
       </c>
       <c r="F88">
-        <v>2.202141569014339</v>
+        <v>5.21528838019154</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.541218224743001</v>
+        <v>5.215379856186622</v>
       </c>
       <c r="C89">
-        <v>3.969931836321452</v>
+        <v>3.192325710293819</v>
       </c>
       <c r="D89">
-        <v>2.850353157913686</v>
+        <v>5.063381878524343</v>
       </c>
       <c r="E89">
-        <v>5.464987264211732</v>
+        <v>3.721184203280524</v>
       </c>
       <c r="F89">
-        <v>2.225464268119605</v>
+        <v>5.312254272252182</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3.610461750865353</v>
+        <v>5.282738433861811</v>
       </c>
       <c r="C90">
-        <v>4.049224775205573</v>
+        <v>3.211452482408191</v>
       </c>
       <c r="D90">
-        <v>2.902697291465077</v>
+        <v>5.128697435990425</v>
       </c>
       <c r="E90">
-        <v>5.5002233176077</v>
+        <v>3.789325987082363</v>
       </c>
       <c r="F90">
-        <v>2.251402703243499</v>
+        <v>5.409414421041485</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3.680026125578295</v>
+        <v>5.351327644349427</v>
       </c>
       <c r="C91">
-        <v>4.128690707863257</v>
+        <v>3.230753618322776</v>
       </c>
       <c r="D91">
-        <v>2.956566391508793</v>
+        <v>5.193648797710929</v>
       </c>
       <c r="E91">
-        <v>5.535370920849617</v>
+        <v>3.857879433498589</v>
       </c>
       <c r="F91">
-        <v>2.280106751459722</v>
+        <v>5.50671768439318</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.749839883131698</v>
+        <v>5.420978113668536</v>
       </c>
       <c r="C92">
-        <v>4.208293187021528</v>
+        <v>3.250230885412392</v>
       </c>
       <c r="D92">
-        <v>3.011720969554188</v>
+        <v>5.258138352803477</v>
       </c>
       <c r="E92">
-        <v>5.570430172662549</v>
+        <v>3.926773280404161</v>
       </c>
       <c r="F92">
-        <v>2.311653057046941</v>
+        <v>5.604122003379944</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3.819847071465297</v>
+        <v>5.491513981243333</v>
       </c>
       <c r="C93">
-        <v>4.28800430009905</v>
+        <v>3.26988600773094</v>
       </c>
       <c r="D93">
-        <v>3.067937022754097</v>
+        <v>5.322083449896867</v>
       </c>
       <c r="E93">
-        <v>5.605401172160009</v>
+        <v>3.995947979710542</v>
       </c>
       <c r="F93">
-        <v>2.346021495836454</v>
+        <v>5.701592161008637</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.890003930186853</v>
+        <v>5.562758519737036</v>
       </c>
       <c r="C94">
-        <v>4.367802314198552</v>
+        <v>3.289720654428823</v>
       </c>
       <c r="D94">
-        <v>3.125012409030199</v>
+        <v>5.385414660016645</v>
       </c>
       <c r="E94">
-        <v>5.640284018989744</v>
+        <v>4.065353932718101</v>
       </c>
       <c r="F94">
-        <v>2.383082647740244</v>
+        <v>5.799098159107499</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.96027622130173</v>
+        <v>5.634539039936659</v>
       </c>
       <c r="C95">
-        <v>4.447670026718349</v>
+        <v>3.309736431768837</v>
       </c>
       <c r="D95">
-        <v>3.182769803768748</v>
+        <v>5.448074143590519</v>
       </c>
       <c r="E95">
-        <v>5.675078813469424</v>
+        <v>4.134949911046557</v>
       </c>
       <c r="F95">
-        <v>2.422602399110452</v>
+        <v>5.89661404209803</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.030637118212308</v>
+        <v>5.706690828058596</v>
       </c>
       <c r="C96">
-        <v>4.527593566389109</v>
+        <v>3.329934874023734</v>
       </c>
       <c r="D96">
-        <v>3.241057090572056</v>
+        <v>5.510014101595615</v>
       </c>
       <c r="E96">
-        <v>5.709785656720136</v>
+        <v>4.20470167964865</v>
       </c>
       <c r="F96">
-        <v>2.464264562346627</v>
+        <v>5.994117040516817</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.101065554035129</v>
+        <v>5.77906004285645</v>
       </c>
       <c r="C97">
-        <v>4.607561547294904</v>
+        <v>3.350317430325749</v>
       </c>
       <c r="D97">
-        <v>3.299746002741132</v>
+        <v>5.571195391518271</v>
       </c>
       <c r="E97">
-        <v>5.744404650795167</v>
+        <v>4.274580817925776</v>
       </c>
       <c r="F97">
-        <v>2.507705594303868</v>
+        <v>6.091586943352957</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.171544940791205</v>
+        <v>5.851505576108519</v>
       </c>
       <c r="C98">
-        <v>4.687564444025652</v>
+        <v>3.370885458448443</v>
       </c>
       <c r="D98">
-        <v>3.358729783533584</v>
+        <v>5.631586310432545</v>
       </c>
       <c r="E98">
-        <v>5.778935898795077</v>
+        <v>4.344563724189968</v>
       </c>
       <c r="F98">
-        <v>2.55255155193561</v>
+        <v>6.18900563556063</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.242062175495189</v>
+        <v>5.923900025465466</v>
       </c>
       <c r="C99">
-        <v>4.767594150405214</v>
+        <v>3.391640208346366</v>
       </c>
       <c r="D99">
-        <v>3.417920438314708</v>
+        <v>5.69116152952769</v>
       </c>
       <c r="E99">
-        <v>5.813379504979718</v>
+        <v>4.414630785426769</v>
       </c>
       <c r="F99">
-        <v>2.598448624790713</v>
+        <v>6.286356746023988</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.312606851349974</v>
+        <v>5.996129937120466</v>
       </c>
       <c r="C100">
-        <v>4.847643668670131</v>
+        <v>3.412582815555059</v>
       </c>
       <c r="D100">
-        <v>3.477245952811943</v>
+        <v>5.749901179644451</v>
       </c>
       <c r="E100">
-        <v>5.847735574873554</v>
+        <v>4.484765674834629</v>
       </c>
       <c r="F100">
-        <v>2.645082763945348</v>
+        <v>6.383625381404511</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4.383170685422565</v>
+        <v>6.068095494365163</v>
       </c>
       <c r="C101">
-        <v>4.927706866076023</v>
+        <v>3.433714285201827</v>
       </c>
       <c r="D101">
-        <v>3.536647664504189</v>
+        <v>5.807790071957537</v>
       </c>
       <c r="E101">
-        <v>5.882004215368798</v>
+        <v>4.554954781491094</v>
       </c>
       <c r="F101">
-        <v>2.69218843481427</v>
+        <v>6.480797931389852</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>4.453747066765634</v>
+        <v>6.139709828327824</v>
       </c>
       <c r="C102">
-        <v>5.007778295213276</v>
+        <v>3.455035483118263</v>
       </c>
       <c r="D102">
-        <v>3.596077924806231</v>
+        <v>5.864817020702748</v>
       </c>
       <c r="E102">
-        <v>5.916185534810886</v>
+        <v>4.625186744977432</v>
       </c>
       <c r="F102">
-        <v>2.739549144110377</v>
+        <v>6.577861908103689</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.524330685889685</v>
+        <v>6.210898086377458</v>
       </c>
       <c r="C103">
-        <v>5.087853069043949</v>
+        <v>3.476547121466948</v>
       </c>
       <c r="D103">
-        <v>3.655498116074453</v>
+        <v>5.9209742658216</v>
       </c>
       <c r="E103">
-        <v>5.950279643086322</v>
+        <v>4.6954520663229</v>
       </c>
       <c r="F103">
-        <v>2.786993042919581</v>
+        <v>6.674805817660354</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.594917259232234</v>
+        <v>6.28159638679093</v>
       </c>
       <c r="C104">
-        <v>5.167926762035989</v>
+        <v>3.498249747621634</v>
       </c>
       <c r="D104">
-        <v>3.714876976437828</v>
+        <v>5.976257000817058</v>
       </c>
       <c r="E104">
-        <v>5.984286651701898</v>
+        <v>4.765742782721842</v>
       </c>
       <c r="F104">
-        <v>2.834386358794935</v>
+        <v>6.771619058225523</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4.66550332009184</v>
+        <v>6.351750731112236</v>
       </c>
       <c r="C105">
-        <v>5.247995335341463</v>
+        <v>3.520143731534401</v>
       </c>
       <c r="D105">
-        <v>3.774189205046489</v>
+        <v>6.030662967609176</v>
       </c>
       <c r="E105">
-        <v>6.018206673860133</v>
+        <v>4.836052206188066</v>
       </c>
       <c r="F105">
-        <v>2.881626415860523</v>
+        <v>6.868291836920456</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4.736086049972128</v>
+        <v>6.421315909311597</v>
       </c>
       <c r="C106">
-        <v>5.32805507930326</v>
+        <v>3.542229253679747</v>
       </c>
       <c r="D106">
-        <v>3.833414308671007</v>
+        <v>6.084192099181267</v>
       </c>
       <c r="E106">
-        <v>6.052039824520223</v>
+        <v>4.906374708196349</v>
       </c>
       <c r="F106">
-        <v>2.9286352190286</v>
+        <v>6.964815100205298</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4.806663147272328</v>
+        <v>6.490254470704291</v>
       </c>
       <c r="C107">
-        <v>5.408102569816398</v>
+        <v>3.564506293009813</v>
       </c>
       <c r="D107">
-        <v>3.892535685443839</v>
+        <v>6.136846214945878</v>
       </c>
       <c r="E107">
-        <v>6.085786220461028</v>
+        <v>4.976705543204098</v>
       </c>
       <c r="F107">
-        <v>2.975353998862198</v>
+        <v>7.061180473428029</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.877232724835879</v>
+        <v>6.558535784907157</v>
       </c>
       <c r="C108">
-        <v>5.488134632627913</v>
+        <v>3.586974616192838</v>
       </c>
       <c r="D108">
-        <v>3.951539876832466</v>
+        <v>6.188628764872139</v>
       </c>
       <c r="E108">
-        <v>6.119445980337607</v>
+        <v>5.047040701281707</v>
       </c>
       <c r="F108">
-        <v>3.021738785411747</v>
+        <v>7.157380209272118</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>4.947793229126331</v>
+        <v>6.62613518418178</v>
       </c>
       <c r="C109">
-        <v>5.568148315305314</v>
+        <v>3.609633764874113</v>
       </c>
       <c r="D109">
-        <v>4.010415964110008</v>
+        <v>6.23954461143762</v>
       </c>
       <c r="E109">
-        <v>6.153019224728506</v>
+        <v>5.117376787288577</v>
       </c>
       <c r="F109">
-        <v>3.067756923798659</v>
+        <v>7.253407142919237</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5.018343376915743</v>
+        <v>6.693033186934215</v>
       </c>
       <c r="C110">
-        <v>5.64814086458802</v>
+        <v>3.632483047558774</v>
       </c>
       <c r="D110">
-        <v>4.06915508348875</v>
+        <v>6.289599840060249</v>
       </c>
       <c r="E110">
-        <v>6.186506076177662</v>
+        <v>5.18771092172328</v>
       </c>
       <c r="F110">
-        <v>3.113384377469776</v>
+        <v>7.34925465180218</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.088882104336326</v>
+        <v>6.75921481046812</v>
       </c>
       <c r="C111">
-        <v>5.72810970753601</v>
+        <v>3.655521529020857</v>
       </c>
       <c r="D111">
-        <v>4.127750034141121</v>
+        <v>6.338801593730884</v>
       </c>
       <c r="E111">
-        <v>6.219906659233291</v>
+        <v>5.258040658386218</v>
       </c>
       <c r="F111">
-        <v>3.158603674438046</v>
+        <v>7.444916619436294</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.159408526370565</v>
+        <v>6.824668964370106</v>
       </c>
       <c r="C112">
-        <v>5.80805243591672</v>
+        <v>3.67874802163056</v>
       </c>
       <c r="D112">
-        <v>4.186194968645735</v>
+        <v>6.387157930212812</v>
       </c>
       <c r="E112">
-        <v>6.25322110048377</v>
+        <v>5.328363915940662</v>
       </c>
       <c r="F112">
-        <v>3.203402339741887</v>
+        <v>7.540387403050191</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.229921905096045</v>
+        <v>6.889387925254089</v>
       </c>
       <c r="C113">
-        <v>5.887966792897065</v>
+        <v>3.702161077401509</v>
       </c>
       <c r="D113">
-        <v>4.24448514716968</v>
+        <v>6.43467769791728</v>
       </c>
       <c r="E113">
-        <v>6.286449528578851</v>
+        <v>5.398678920781133</v>
       </c>
       <c r="F113">
-        <v>3.247771687721607</v>
+        <v>7.635661803942001</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.300421623811769</v>
+        <v>6.953366874574218</v>
       </c>
       <c r="C114">
-        <v>5.96785066136462</v>
+        <v>3.72575898149894</v>
       </c>
       <c r="D114">
-        <v>4.302616725202233</v>
+        <v>6.481370427609306</v>
       </c>
       <c r="E114">
-        <v>6.319592074250515</v>
+        <v>5.468984160175162</v>
       </c>
       <c r="F114">
-        <v>3.291705935235622</v>
+        <v>7.73073504006488</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.370907166309614</v>
+        <v>7.016603496818272</v>
       </c>
       <c r="C115">
-        <v>6.047702053873919</v>
+        <v>3.749539746924358</v>
       </c>
       <c r="D115">
-        <v>4.360586584910139</v>
+        <v>6.527246236973038</v>
       </c>
       <c r="E115">
-        <v>6.352648870355831</v>
+        <v>5.539278342777223</v>
       </c>
       <c r="F115">
-        <v>3.33520155873653</v>
+        <v>7.825602720973306</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.441378100187673</v>
+        <v>7.079097630896616</v>
       </c>
       <c r="C116">
-        <v>6.127519104124503</v>
+        <v>3.773501110356722</v>
       </c>
       <c r="D116">
-        <v>4.418392207883245</v>
+        <v>6.572315746435314</v>
       </c>
       <c r="E116">
-        <v>6.385620051844255</v>
+        <v>5.609560365701376</v>
       </c>
       <c r="F116">
-        <v>3.378256765188917</v>
+        <v>7.920260824341617</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.511834062616667</v>
+        <v>7.140850968001756</v>
       </c>
       <c r="C117">
-        <v>6.20730005926927</v>
+        <v>3.797640529281373</v>
       </c>
       <c r="D117">
-        <v>4.476031572126983</v>
+        <v>6.616590004934328</v>
       </c>
       <c r="E117">
-        <v>6.418505755848881</v>
+        <v>5.679829287069734</v>
       </c>
       <c r="F117">
-        <v>3.420871082493704</v>
+        <v>8.014705673946466</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5.582274749294299</v>
+        <v>7.201866789580989</v>
       </c>
       <c r="C118">
-        <v>6.287043272792718</v>
+        <v>3.821955181207153</v>
       </c>
       <c r="D118">
-        <v>4.533503063317888</v>
+        <v>6.660080424218269</v>
       </c>
       <c r="E118">
-        <v>6.451306121576282</v>
+        <v>5.750084302179846</v>
       </c>
       <c r="F118">
-        <v>3.463045069323058</v>
+        <v>8.108933919317924</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.652699905811873</v>
+        <v>7.262149740431661</v>
       </c>
       <c r="C119">
-        <v>6.366747197897065</v>
+        <v>3.846441963799208</v>
       </c>
       <c r="D119">
-        <v>4.590805420036855</v>
+        <v>6.702798720450049</v>
       </c>
       <c r="E119">
-        <v>6.484021290444399</v>
+        <v>5.820324723735964</v>
       </c>
       <c r="F119">
-        <v>3.504780088878825</v>
+        <v>8.202942516910586</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.723109320498907</v>
+        <v>7.32170563052775</v>
       </c>
       <c r="C120">
-        <v>6.446410381649962</v>
+        <v>3.87109749756098</v>
       </c>
       <c r="D120">
-        <v>4.647937657401033</v>
+        <v>6.744756861981962</v>
       </c>
       <c r="E120">
-        <v>6.516651405936378</v>
+        <v>5.89054996440574</v>
       </c>
       <c r="F120">
-        <v>3.546078134888956</v>
+        <v>8.296728712389026</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5.793502818383767</v>
+        <v>7.380541264777517</v>
       </c>
       <c r="C121">
-        <v>6.526031459659499</v>
+        <v>3.895918128751185</v>
       </c>
       <c r="D121">
-        <v>4.704899021066309</v>
+        <v>6.785967023019217</v>
       </c>
       <c r="E121">
-        <v>6.549196613728763</v>
+        <v>5.960759525979187</v>
       </c>
       <c r="F121">
-        <v>3.586941690620447</v>
+        <v>8.390290023815091</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5.863880255633373</v>
+        <v>7.43866429429805</v>
       </c>
       <c r="C122">
-        <v>6.605609151129463</v>
+        <v>3.920899934410578</v>
       </c>
       <c r="D122">
-        <v>4.761688950020438</v>
+        <v>6.826441542826736</v>
       </c>
       <c r="E122">
-        <v>6.581657061569113</v>
+        <v>6.030952986211449</v>
       </c>
       <c r="F122">
-        <v>3.627373623653284</v>
+        <v>8.483624225654214</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.934241515094513</v>
+        <v>7.496083089216457</v>
       </c>
       <c r="C123">
-        <v>6.685142254409059</v>
+        <v>3.946038729457225</v>
       </c>
       <c r="D123">
-        <v>4.818307043039359</v>
+        <v>6.866192887172589</v>
       </c>
       <c r="E123">
-        <v>6.614032899358805</v>
+        <v>6.101129988253703</v>
       </c>
       <c r="F123">
-        <v>3.667377108030555</v>
+        <v>8.576729333781191</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6.004586502934721</v>
+        <v>7.552806624103797</v>
       </c>
       <c r="C124">
-        <v>6.764629642260937</v>
+        <v>3.97133007529392</v>
       </c>
       <c r="D124">
-        <v>4.874753038822905</v>
+        <v>6.905233611785389</v>
       </c>
       <c r="E124">
-        <v>6.646324279063719</v>
+        <v>6.171290231946226</v>
       </c>
       <c r="F124">
-        <v>3.706955552474787</v>
+        <v>8.669603591643234</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6.074915145773604</v>
+        <v>7.608844382597333</v>
       </c>
       <c r="C125">
-        <v>6.844070258334057</v>
+        <v>3.996769289714236</v>
       </c>
       <c r="D125">
-        <v>4.931026792171674</v>
+        <v>6.943576337200126</v>
       </c>
       <c r="E125">
-        <v>6.678531354764502</v>
+        <v>6.241433466534875</v>
       </c>
       <c r="F125">
-        <v>3.746112546300284</v>
+        <v>8.762245456989714</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.145227388213295</v>
+        <v>7.664206257166116</v>
       </c>
       <c r="C126">
-        <v>6.923463112551211</v>
+        <v>4.022351458236716</v>
       </c>
       <c r="D126">
-        <v>4.987128254678932</v>
+        <v>6.981233720277349</v>
       </c>
       <c r="E126">
-        <v>6.710654282574239</v>
+        <v>6.311559484228226</v>
       </c>
       <c r="F126">
-        <v>3.784851824259282</v>
+        <v>8.85465358948675</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6.215523190978891</v>
+        <v>7.718902487751937</v>
       </c>
       <c r="C127">
-        <v>7.002807278211733</v>
+        <v>4.048071446920137</v>
       </c>
       <c r="D127">
-        <v>5.043057459994988</v>
+        <v>7.018218427991835</v>
       </c>
       <c r="E127">
-        <v>6.742693220681406</v>
+        <v>6.381668115395058</v>
       </c>
       <c r="F127">
-        <v>3.82317723424955</v>
+        <v>8.946826839432683</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6.285802528231129</v>
+        <v>7.772943602033818</v>
       </c>
       <c r="C128">
-        <v>7.082101888939738</v>
+        <v>4.073923916505327</v>
       </c>
       <c r="D128">
-        <v>5.098814510626369</v>
+        <v>7.054543119574446</v>
       </c>
       <c r="E128">
-        <v>6.774648329258918</v>
+        <v>6.451759223944458</v>
       </c>
       <c r="F128">
-        <v>3.861092711866583</v>
+        <v>9.038764235147083</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.356065387261221</v>
+        <v>7.826340352158418</v>
       </c>
       <c r="C129">
-        <v>7.161346134580201</v>
+        <v>4.099903337714621</v>
       </c>
       <c r="D129">
-        <v>5.154399568458142</v>
+        <v>7.090220423208097</v>
       </c>
       <c r="E129">
-        <v>6.806519770504382</v>
+        <v>6.521832703159749</v>
       </c>
       <c r="F129">
-        <v>3.898602258415413</v>
+        <v>9.130464974258199</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6.426311765111044</v>
+        <v>7.879103663024164</v>
       </c>
       <c r="C130">
-        <v>7.240539259428726</v>
+        <v>4.126004007455808</v>
       </c>
       <c r="D130">
-        <v>5.209812846610883</v>
+        <v>7.125262919374106</v>
       </c>
       <c r="E130">
-        <v>6.838307708550593</v>
+        <v>6.591888471718739</v>
       </c>
       <c r="F130">
-        <v>3.935709922754601</v>
+        <v>9.221928411603216</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6.496541669859054</v>
+        <v>7.9312445919708</v>
       </c>
       <c r="C131">
-        <v>7.319680558573118</v>
+        <v>4.152220066339254</v>
       </c>
       <c r="D131">
-        <v>5.265054601663595</v>
+        <v>7.159683122746544</v>
       </c>
       <c r="E131">
-        <v>6.870012309487728</v>
+        <v>6.661926470693569</v>
       </c>
       <c r="F131">
-        <v>3.972419785648273</v>
+        <v>9.313154051120849</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6.566755117639258</v>
+        <v>7.98277428719129</v>
       </c>
       <c r="C132">
-        <v>7.398769375295943</v>
+        <v>4.178545516426892</v>
       </c>
       <c r="D132">
-        <v>5.320125127490583</v>
+        <v>7.193493470675388</v>
       </c>
       <c r="E132">
-        <v>6.901633741291655</v>
+        <v>6.731946661691625</v>
       </c>
       <c r="F132">
-        <v>4.008735949245037</v>
+        <v>9.404141538814978</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6.636952133198005</v>
+        <v>8.033703954014523</v>
       </c>
       <c r="C133">
-        <v>7.477805098906667</v>
+        <v>4.204974239932722</v>
       </c>
       <c r="D133">
-        <v>5.375024749891544</v>
+        <v>7.226706309257303</v>
       </c>
       <c r="E133">
-        <v>6.933172173821521</v>
+        <v>6.801949022601088</v>
       </c>
       <c r="F133">
-        <v>4.044662528048908</v>
+        <v>9.494890650138016</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6.707132748687792</v>
+        <v>8.08404482419037</v>
       </c>
       <c r="C134">
-        <v>7.556787161921835</v>
+        <v>4.231500018394029</v>
       </c>
       <c r="D134">
-        <v>5.429753822127261</v>
+        <v>7.259333881395792</v>
       </c>
       <c r="E134">
-        <v>6.964627778770302</v>
+        <v>6.87193354970184</v>
       </c>
       <c r="F134">
-        <v>4.080203641001942</v>
+        <v>9.585401287495102</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6.777297002618061</v>
+        <v>8.133808135888113</v>
       </c>
       <c r="C135">
-        <v>7.635715038141123</v>
+        <v>4.25811655202011</v>
       </c>
       <c r="D135">
-        <v>5.484312721432171</v>
+        <v>7.2913883169479</v>
       </c>
       <c r="E135">
-        <v>6.996000729629134</v>
+        <v>6.94190025090994</v>
       </c>
       <c r="F135">
-        <v>4.115363405820807</v>
+        <v>9.675673468128494</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6.847444939830795</v>
+        <v>8.183005107897205</v>
       </c>
       <c r="C136">
-        <v>7.714588240553759</v>
+        <v>4.284817479217479</v>
       </c>
       <c r="D136">
-        <v>5.53870184580603</v>
+        <v>7.322881623710685</v>
       </c>
       <c r="E136">
-        <v>7.027291201655393</v>
+        <v>7.011849149177397</v>
       </c>
       <c r="F136">
-        <v>4.15014593279157</v>
+        <v>9.765707319730037</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6.917576610372196</v>
+        <v>8.231646919317264</v>
       </c>
       <c r="C137">
-        <v>7.793406318953052</v>
+        <v>4.311596395954162</v>
       </c>
       <c r="D137">
-        <v>5.592921611745464</v>
+        <v>7.353825679017508</v>
       </c>
       <c r="E137">
-        <v>7.05849937183557</v>
+        <v>7.081780277447701</v>
       </c>
       <c r="F137">
-        <v>4.184555320788932</v>
+        <v>9.855503072505366</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6.987692069417311</v>
+        <v>8.279744695098083</v>
       </c>
       <c r="C138">
-        <v>7.872168858468139</v>
+        <v>4.338446874788475</v>
       </c>
       <c r="D138">
-        <v>5.646972450279367</v>
+        <v>7.384232223321021</v>
       </c>
       <c r="E138">
-        <v>7.089625418848978</v>
+        <v>7.15169367954271</v>
       </c>
       <c r="F138">
-        <v>4.218595650380298</v>
+        <v>9.945061052795641</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.057791376524176</v>
+        <v>8.327309491565584</v>
       </c>
       <c r="C139">
-        <v>7.950875477507057</v>
+        <v>4.365362483296012</v>
       </c>
       <c r="D139">
-        <v>5.700854807468343</v>
+        <v>7.414112852049433</v>
       </c>
       <c r="E139">
-        <v>7.120669523027667</v>
+        <v>7.221589407804261</v>
       </c>
       <c r="F139">
-        <v>4.25227098563427</v>
+        <v>10.03438167866711</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.127874595516102</v>
+        <v>8.374352272532473</v>
       </c>
       <c r="C140">
-        <v>8.029525825924098</v>
+        <v>4.392336801686433</v>
       </c>
       <c r="D140">
-        <v>5.754569138783278</v>
+        <v>7.443479011807663</v>
       </c>
       <c r="E140">
-        <v>7.151631866316563</v>
+        <v>7.291467522832504</v>
       </c>
       <c r="F140">
-        <v>4.285585363116684</v>
+        <v>10.12346545166226</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.197941794090587</v>
+        <v>8.420883920104016</v>
       </c>
       <c r="C141">
-        <v>8.108119583693355</v>
+        <v>4.419363439414861</v>
       </c>
       <c r="D141">
-        <v>5.808115912438194</v>
+        <v>7.47234199345423</v>
       </c>
       <c r="E141">
-        <v>7.182512632234851</v>
+        <v>7.361328092421012</v>
       </c>
       <c r="F141">
-        <v>4.318542800645419</v>
+        <v>10.21231295462708</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.267993043397103</v>
+        <v>8.466915185349546</v>
       </c>
       <c r="C142">
-        <v>8.18665645904237</v>
+        <v>4.446436050688537</v>
       </c>
       <c r="D142">
-        <v>5.861495603491487</v>
+        <v>7.500712927684159</v>
       </c>
       <c r="E142">
-        <v>7.213312005832902</v>
+        <v>7.431171190757385</v>
       </c>
       <c r="F142">
-        <v>4.351147283938905</v>
+        <v>10.30092484404366</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7.338028417998905</v>
+        <v>8.512456738144692</v>
       </c>
       <c r="C143">
-        <v>8.265136187159225</v>
+        <v>4.473548348764228</v>
       </c>
       <c r="D143">
-        <v>5.914708696889147</v>
+        <v>7.528602786964068</v>
       </c>
       <c r="E143">
-        <v>7.244030173653956</v>
+        <v>7.500996898396984</v>
       </c>
       <c r="F143">
-        <v>4.38340277583013</v>
+        <v>10.3893018470869</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.408047995346396</v>
+        <v>8.557519092653722</v>
       </c>
       <c r="C144">
-        <v>8.343558528840681</v>
+        <v>4.500694119117059</v>
       </c>
       <c r="D144">
-        <v>5.967755683509128</v>
+        <v>7.556022373091466</v>
       </c>
       <c r="E144">
-        <v>7.274667323692691</v>
+        <v>7.570805300723901</v>
       </c>
       <c r="F144">
-        <v>4.415313206279182</v>
+        <v>10.4774447563827</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7.478051855749108</v>
+        <v>8.602112671065864</v>
       </c>
       <c r="C145">
-        <v>8.421923268933844</v>
+        <v>4.527867231360872</v>
       </c>
       <c r="D145">
-        <v>6.020637061027974</v>
+        <v>7.582982327705655</v>
       </c>
       <c r="E145">
-        <v>7.305223645354715</v>
+        <v>7.640596488501705</v>
       </c>
       <c r="F145">
-        <v>4.44688247684588</v>
+        <v>10.56535442543673</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7.548040082000806</v>
+        <v>8.646247738156092</v>
       </c>
       <c r="C146">
-        <v>8.500230215348363</v>
+        <v>4.555061650054959</v>
       </c>
       <c r="D146">
-        <v>6.073353332278097</v>
+        <v>7.609493117090112</v>
       </c>
       <c r="E146">
-        <v>7.335699329415428</v>
+        <v>7.710370556531878</v>
       </c>
       <c r="F146">
-        <v>4.478114455913178</v>
+        <v>10.6530317658647</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7.618012759275589</v>
+        <v>8.689934443961535</v>
       </c>
       <c r="C147">
-        <v>8.578479197744366</v>
+        <v>4.582271444662411</v>
       </c>
       <c r="D147">
-        <v>6.125905004563958</v>
+        <v>7.635565042519612</v>
       </c>
       <c r="E147">
-        <v>7.366094567978704</v>
+        <v>7.780127603816921</v>
       </c>
       <c r="F147">
-        <v>4.509012979129495</v>
+        <v>10.74047774191528</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.687969974914425</v>
+        <v>8.733182786908118</v>
       </c>
       <c r="C148">
-        <v>8.656670066295476</v>
+        <v>4.609490798168621</v>
       </c>
       <c r="D148">
-        <v>6.17829258954903</v>
+        <v>7.661208229110009</v>
       </c>
       <c r="E148">
-        <v>7.39640955443583</v>
+        <v>7.849867732758589</v>
       </c>
       <c r="F148">
-        <v>4.539581848456796</v>
+        <v>10.82769336871274</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7.757911818236852</v>
+        <v>8.776002633014281</v>
       </c>
       <c r="C149">
-        <v>8.734802690842768</v>
+        <v>4.636714014897408</v>
       </c>
       <c r="D149">
-        <v>6.230516601780359</v>
+        <v>7.686432632118025</v>
       </c>
       <c r="E149">
-        <v>7.426644483424772</v>
+        <v>7.919591049104406</v>
       </c>
       <c r="F149">
-        <v>4.569824830961197</v>
+        <v>10.91467970747868</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7.82783838047939</v>
+        <v>8.818403696990075</v>
       </c>
       <c r="C150">
-        <v>8.812876959663871</v>
+        <v>4.663935527431012</v>
       </c>
       <c r="D150">
-        <v>6.282577559496065</v>
+        <v>7.711248030817001</v>
       </c>
       <c r="E150">
-        <v>7.456799550789614</v>
+        <v>7.989297661470638</v>
       </c>
       <c r="F150">
-        <v>4.599745659255204</v>
+        <v>11.00143786319973</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7.89774975452509</v>
+        <v>8.860395554548118</v>
       </c>
       <c r="C151">
-        <v>8.890892778606517</v>
+        <v>4.691149902497911</v>
       </c>
       <c r="D151">
-        <v>6.334475982919623</v>
+        <v>7.735664034444159</v>
       </c>
       <c r="E151">
-        <v>7.486874953540326</v>
+        <v>8.058987681140238</v>
       </c>
       <c r="F151">
-        <v>4.629348029980568</v>
+        <v>11.08796898161365</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7.967646034908842</v>
+        <v>8.901987628182816</v>
       </c>
       <c r="C152">
-        <v>8.96885007021069</v>
+        <v>4.718351846007447</v>
       </c>
       <c r="D152">
-        <v>6.386212395149961</v>
+        <v>7.759690075393211</v>
       </c>
       <c r="E152">
-        <v>7.516870889812833</v>
+        <v>8.12866122189107</v>
       </c>
       <c r="F152">
-        <v>4.658635604777031</v>
+        <v>11.17427424561819</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>8.037527317583478</v>
+        <v>8.943189198599232</v>
       </c>
       <c r="C153">
-        <v>9.046748772774334</v>
+        <v>4.745536207338469</v>
       </c>
       <c r="D153">
-        <v>6.437787320818221</v>
+        <v>7.783335417470477</v>
       </c>
       <c r="E153">
-        <v>7.54678755882957</v>
+        <v>8.198318399577778</v>
       </c>
       <c r="F153">
-        <v>4.687612008720465</v>
+        <v>11.26035487385183</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>8.107393699881097</v>
+        <v>8.98400939551248</v>
       </c>
       <c r="C154">
-        <v>9.12458883964139</v>
+        <v>4.772697982795598</v>
       </c>
       <c r="D154">
-        <v>6.489201286524295</v>
+        <v>7.806609148759769</v>
       </c>
       <c r="E154">
-        <v>7.576625160860703</v>
+        <v>8.267959332185177</v>
       </c>
       <c r="F154">
-        <v>4.716280831274263</v>
+        <v>11.34621211689864</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>8.177245280364673</v>
+        <v>9.024457203505284</v>
       </c>
       <c r="C155">
-        <v>9.202370237907731</v>
+        <v>4.799832318329116</v>
       </c>
       <c r="D155">
-        <v>6.540454820065971</v>
+        <v>7.829520190194611</v>
       </c>
       <c r="E155">
-        <v>7.606383897185991</v>
+        <v>8.337584139386339</v>
       </c>
       <c r="F155">
-        <v>4.74464562508866</v>
+        <v>11.43184725600907</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>8.247082158741268</v>
+        <v>9.064541460561054</v>
       </c>
       <c r="C156">
-        <v>9.280092948837806</v>
+        <v>4.826934511529553</v>
       </c>
       <c r="D156">
-        <v>6.59154845046381</v>
+        <v>7.852077289750111</v>
       </c>
       <c r="E156">
-        <v>7.636063970057394</v>
+        <v>8.4071929425844</v>
       </c>
       <c r="F156">
-        <v>4.772709906664542</v>
+        <v>11.51726160014442</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>8.316904435797285</v>
+        <v>9.104270857935454</v>
       </c>
       <c r="C157">
-        <v>9.357756965161938</v>
+        <v>4.8540000130044</v>
       </c>
       <c r="D157">
-        <v>6.642482707586006</v>
+        <v>7.874289029702355</v>
       </c>
       <c r="E157">
-        <v>7.665665582662592</v>
+        <v>8.476785864583221</v>
       </c>
       <c r="F157">
-        <v>4.800477155567953</v>
+        <v>11.60245648413293</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>8.386712213258576</v>
+        <v>9.143653943199318</v>
       </c>
       <c r="C158">
-        <v>9.435362292681939</v>
+        <v>4.88102442708994</v>
       </c>
       <c r="D158">
-        <v>6.693258121999828</v>
+        <v>7.896163822947474</v>
       </c>
       <c r="E158">
-        <v>7.695188939089554</v>
+        <v>8.546363029578186</v>
       </c>
       <c r="F158">
-        <v>4.827950815062072</v>
+        <v>11.68743326696449</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>8.456505593783676</v>
+        <v>9.182699118654874</v>
       </c>
       <c r="C159">
-        <v>9.512908948175019</v>
+        <v>4.908003512024648</v>
       </c>
       <c r="D159">
-        <v>6.743875224812299</v>
+        <v>7.917709918944952</v>
       </c>
       <c r="E159">
-        <v>7.724634244292189</v>
+        <v>8.615924562934719</v>
       </c>
       <c r="F159">
-        <v>4.855134291391241</v>
+        <v>11.77219332917813</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>8.526284680825281</v>
+        <v>9.221414645029729</v>
       </c>
       <c r="C160">
-        <v>9.590396958777941</v>
+        <v>4.934933179718898</v>
       </c>
       <c r="D160">
-        <v>6.794334547420134</v>
+        <v>7.938935401564533</v>
       </c>
       <c r="E160">
-        <v>7.754001704057353</v>
+        <v>8.685470591123947</v>
       </c>
       <c r="F160">
-        <v>4.882030954619173</v>
+        <v>11.85673807205335</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8.59604957861397</v>
+        <v>9.259808640521014</v>
       </c>
       <c r="C161">
-        <v>9.667826362938216</v>
+        <v>4.961809494981797</v>
       </c>
       <c r="D161">
-        <v>6.844636621518775</v>
+        <v>7.959848196180581</v>
       </c>
       <c r="E161">
-        <v>7.783291524973082</v>
+        <v>8.755001241611478</v>
       </c>
       <c r="F161">
-        <v>4.908644137921065</v>
+        <v>11.94106891508395</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8.665800392058152</v>
+        <v>9.297889084833743</v>
       </c>
       <c r="C162">
-        <v>9.745197207561198</v>
+        <v>4.988628673930471</v>
       </c>
       <c r="D162">
-        <v>6.894781978754111</v>
+        <v>7.980456064266962</v>
       </c>
       <c r="E162">
-        <v>7.812503914398298</v>
+        <v>8.824516642717271</v>
       </c>
       <c r="F162">
-        <v>4.934977138427698</v>
+        <v>12.02518729504597</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>8.735537226703078</v>
+        <v>9.335663818133895</v>
       </c>
       <c r="C163">
-        <v>9.822509549752866</v>
+        <v>5.015387082621899</v>
       </c>
       <c r="D163">
-        <v>6.944771150808917</v>
+        <v>8.000766608066421</v>
       </c>
       <c r="E163">
-        <v>7.841639080433643</v>
+        <v>8.894016923599541</v>
       </c>
       <c r="F163">
-        <v>4.961033216721158</v>
+        <v>12.10909466420721</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>8.805260188675822</v>
+        <v>9.373140546085708</v>
       </c>
       <c r="C164">
-        <v>9.899763454591934</v>
+        <v>5.04208123515398</v>
       </c>
       <c r="D164">
-        <v>6.994604669098583</v>
+        <v>8.020787282920294</v>
       </c>
       <c r="E164">
-        <v>7.87069723189319</v>
+        <v>8.963502214081618</v>
       </c>
       <c r="F164">
-        <v>4.986815597481717</v>
+        <v>12.1927924889412</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>8.874969384614745</v>
+        <v>9.410326838360291</v>
       </c>
       <c r="C165">
-        <v>9.976958995593602</v>
+        <v>5.068707791285835</v>
       </c>
       <c r="D165">
-        <v>7.044283064801839</v>
+        <v>8.040525379678396</v>
       </c>
       <c r="E165">
-        <v>7.899678578276277</v>
+        <v>9.032972644663221</v>
       </c>
       <c r="F165">
-        <v>5.012327469265737</v>
+        <v>12.27628224920542</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>8.944664921651791</v>
+        <v>9.447230134045615</v>
       </c>
       <c r="C166">
-        <v>10.05409625418536</v>
+        <v>5.095263553875834</v>
       </c>
       <c r="D166">
-        <v>7.09380686864093</v>
+        <v>8.059988037544807</v>
       </c>
       <c r="E166">
-        <v>7.928583329738493</v>
+        <v>9.102428346372589</v>
       </c>
       <c r="F166">
-        <v>5.037571984973166</v>
+        <v>12.35956543549009</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.014346907339917</v>
+        <v>9.483857740615546</v>
       </c>
       <c r="C167">
-        <v>10.13117531868107</v>
+        <v>5.121745466164021</v>
       </c>
       <c r="D167">
-        <v>7.143176610886515</v>
+        <v>8.079182257641747</v>
       </c>
       <c r="E167">
-        <v>7.957411697060707</v>
+        <v>9.17186945076438</v>
       </c>
       <c r="F167">
-        <v>5.062552261822457</v>
+        <v>12.4426435493262</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9.084015449646206</v>
+        <v>9.520216838610061</v>
       </c>
       <c r="C168">
-        <v>10.20819628481184</v>
+        <v>5.148150608811622</v>
       </c>
       <c r="D168">
-        <v>7.192392821183924</v>
+        <v>8.098114884970297</v>
       </c>
       <c r="E168">
-        <v>7.986163891615275</v>
+        <v>9.241296089813183</v>
       </c>
       <c r="F168">
-        <v>5.087271381749336</v>
+        <v>12.52551810226085</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>9.153670656836335</v>
+        <v>9.556314481726281</v>
       </c>
       <c r="C169">
-        <v>10.28515925425266</v>
+        <v>5.174476196751412</v>
       </c>
       <c r="D169">
-        <v>7.241456028548741</v>
+        <v>8.116792618316769</v>
       </c>
       <c r="E169">
-        <v>8.014840125329115</v>
+        <v>9.310708395889311</v>
       </c>
       <c r="F169">
-        <v>5.111732391480012</v>
+        <v>12.60819061150023</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.223312637552009</v>
+        <v>9.592157600548154</v>
       </c>
       <c r="C170">
-        <v>10.36206433528884</v>
+        <v>5.200719575928193</v>
       </c>
       <c r="D170">
-        <v>7.290366761232582</v>
+        <v>8.135222021898878</v>
       </c>
       <c r="E170">
-        <v>8.043440610643842</v>
+        <v>9.380106501697197</v>
       </c>
       <c r="F170">
-        <v>5.135938302912892</v>
+        <v>12.6906626056493</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>9.292941500674527</v>
+        <v>9.627753003513964</v>
       </c>
       <c r="C171">
-        <v>10.43891164191213</v>
+        <v>5.226878219935922</v>
       </c>
       <c r="D171">
-        <v>7.339125546695661</v>
+        <v>8.153409517542096</v>
       </c>
       <c r="E171">
-        <v>8.07196556047383</v>
+        <v>9.449490540222099</v>
       </c>
       <c r="F171">
-        <v>5.159892093258057</v>
+        <v>12.77293561654727</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9.36255735526689</v>
+        <v>9.663107380155255</v>
       </c>
       <c r="C172">
-        <v>10.51570129345023</v>
+        <v>5.252949725945728</v>
       </c>
       <c r="D172">
-        <v>7.387732911551324</v>
+        <v>8.171361387064815</v>
       </c>
       <c r="E172">
-        <v>8.100415188163065</v>
+        <v>9.51886064473797</v>
       </c>
       <c r="F172">
-        <v>5.183596705391415</v>
+        <v>12.85501118194512</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9.432160310775084</v>
+        <v>9.69822730244533</v>
       </c>
       <c r="C173">
-        <v>10.59243341500438</v>
+        <v>5.278931812222564</v>
       </c>
       <c r="D173">
-        <v>7.436189381451602</v>
+        <v>8.189083780589035</v>
       </c>
       <c r="E173">
-        <v>8.128789707441683</v>
+        <v>9.58821694866535</v>
       </c>
       <c r="F173">
-        <v>5.207055048063676</v>
+        <v>12.93689084721454</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>9.501750476652148</v>
+        <v>9.73311922783102</v>
       </c>
       <c r="C174">
-        <v>10.66910813604033</v>
+        <v>5.304822314403599</v>
       </c>
       <c r="D174">
-        <v>7.48449548099358</v>
+        <v>8.206582716127922</v>
       </c>
       <c r="E174">
-        <v>8.157089332382824</v>
+        <v>9.65755958559995</v>
       </c>
       <c r="F174">
-        <v>5.230269996214353</v>
+        <v>13.01857615859599</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>9.571327962576738</v>
+        <v>9.767789500847922</v>
       </c>
       <c r="C175">
-        <v>10.74572559100998</v>
+        <v>5.330619180679347</v>
       </c>
       <c r="D175">
-        <v>7.532651733940212</v>
+        <v>8.223864080488443</v>
       </c>
       <c r="E175">
-        <v>8.185314277360305</v>
+        <v>9.726888689369575</v>
       </c>
       <c r="F175">
-        <v>5.253244391246827</v>
+        <v>13.10006866762624</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>9.640892878438738</v>
+        <v>9.802244355811105</v>
       </c>
       <c r="C176">
-        <v>10.82228591850668</v>
+        <v>5.356320472416312</v>
       </c>
       <c r="D176">
-        <v>7.580658662701734</v>
+        <v>8.240933633582221</v>
       </c>
       <c r="E176">
-        <v>8.213464757007518</v>
+        <v>9.796204393732562</v>
       </c>
       <c r="F176">
-        <v>5.275981041308015</v>
+        <v>13.18136992848117</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>9.710445334125213</v>
+        <v>9.836489918840751</v>
       </c>
       <c r="C177">
-        <v>10.89878926136082</v>
+        <v>5.381924354596333</v>
       </c>
       <c r="D177">
-        <v>7.628516788589</v>
+        <v>8.257797010261291</v>
       </c>
       <c r="E177">
-        <v>8.24154098617748</v>
+        <v>9.865506832628181</v>
       </c>
       <c r="F177">
-        <v>5.29848272166717</v>
+        <v>13.2624814964944</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>9.77998543969788</v>
+        <v>9.870532210123523</v>
       </c>
       <c r="C178">
-        <v>10.97523576644296</v>
+        <v>5.40742909456588</v>
       </c>
       <c r="D178">
-        <v>7.676226631985807</v>
+        <v>8.274459722994123</v>
       </c>
       <c r="E178">
-        <v>8.269543179904463</v>
+        <v>9.934796140088725</v>
       </c>
       <c r="F178">
-        <v>5.320752174872657</v>
+        <v>13.34340493003715</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>9.849513305270396</v>
+        <v>9.904377146192093</v>
       </c>
       <c r="C179">
-        <v>11.05162558398891</v>
+        <v>5.432833061021438</v>
       </c>
       <c r="D179">
-        <v>7.723788711717165</v>
+        <v>8.290927164033986</v>
       </c>
       <c r="E179">
-        <v>8.297471553366888</v>
+        <v>10.00407245000454</v>
       </c>
       <c r="F179">
-        <v>5.342792111059314</v>
+        <v>13.42414178702564</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9.919029040983707</v>
+        <v>9.938030542023171</v>
       </c>
       <c r="C180">
-        <v>11.12795886803875</v>
+        <v>5.458134717025581</v>
       </c>
       <c r="D180">
-        <v>7.771203545484009</v>
+        <v>8.307204607890455</v>
       </c>
       <c r="E180">
-        <v>8.325326321851666</v>
+        <v>10.07333589645059</v>
       </c>
       <c r="F180">
-        <v>5.364605208631184</v>
+        <v>13.50469362635472</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>9.988532757064364</v>
+        <v>9.971498113284248</v>
       </c>
       <c r="C181">
-        <v>11.20423577554827</v>
+        <v>5.48333261745993</v>
       </c>
       <c r="D181">
-        <v>7.818471649835121</v>
+        <v>8.323297213813287</v>
       </c>
       <c r="E181">
-        <v>8.353107700720171</v>
+        <v>10.14258661339933</v>
       </c>
       <c r="F181">
-        <v>5.3861941139082</v>
+        <v>13.58506200729991</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.05802456370766</v>
+        <v>10.00478547847406</v>
       </c>
       <c r="C182">
-        <v>11.28045646676732</v>
+        <v>5.508425407179693</v>
       </c>
       <c r="D182">
-        <v>7.865593539771816</v>
+        <v>8.339210028139107</v>
       </c>
       <c r="E182">
-        <v>8.380815905375316</v>
+        <v>10.21182473474947</v>
       </c>
       <c r="F182">
-        <v>5.407561441837513</v>
+        <v>13.6652484874863</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.12750457112982</v>
+        <v>10.03789816100493</v>
       </c>
       <c r="C183">
-        <v>11.35662110479164</v>
+        <v>5.533411817229911</v>
       </c>
       <c r="D183">
-        <v>7.912569729071061</v>
+        <v>8.35494798666857</v>
       </c>
       <c r="E183">
-        <v>8.40845115123008</v>
+        <v>10.28105039446413</v>
       </c>
       <c r="F183">
-        <v>5.428709776678356</v>
+        <v>13.74525462509851</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.19697288955534</v>
+        <v>10.07084159143262</v>
       </c>
       <c r="C184">
-        <v>11.43272985531119</v>
+        <v>5.558290659980022</v>
       </c>
       <c r="D184">
-        <v>7.959400730141148</v>
+        <v>8.37051591722768</v>
       </c>
       <c r="E184">
-        <v>8.436013653677364</v>
+        <v>10.35026372633326</v>
       </c>
       <c r="F184">
-        <v>5.44964167145938</v>
+        <v>13.82508197604342</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.26642962913983</v>
+        <v>10.10362110935233</v>
       </c>
       <c r="C185">
-        <v>11.50878288678186</v>
+        <v>5.583060826459274</v>
       </c>
       <c r="D185">
-        <v>8.006087053896255</v>
+        <v>8.385918541788159</v>
       </c>
       <c r="E185">
-        <v>8.463503628061041</v>
+        <v>10.41946486409181</v>
       </c>
       <c r="F185">
-        <v>5.47035964888543</v>
+        <v>13.90473209451786</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.33587490004251</v>
+        <v>10.13624196571331</v>
       </c>
       <c r="C186">
-        <v>11.58478036980029</v>
+        <v>5.607721286414612</v>
       </c>
       <c r="D186">
-        <v>8.052629209896345</v>
+        <v>8.401160477901733</v>
       </c>
       <c r="E186">
-        <v>8.490921289648316</v>
+        <v>10.48865394140521</v>
       </c>
       <c r="F186">
-        <v>5.49086620178815</v>
+        <v>13.98420653375737</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.40530881235526</v>
+        <v>10.16870932451323</v>
       </c>
       <c r="C187">
-        <v>11.66072247744873</v>
+        <v>5.632271080805421</v>
       </c>
       <c r="D187">
-        <v>8.09902770619955</v>
+        <v>8.416246243145025</v>
       </c>
       <c r="E187">
-        <v>8.518266853603196</v>
+        <v>10.55783109177623</v>
       </c>
       <c r="F187">
-        <v>5.511163792916538</v>
+        <v>14.06350684350153</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.47473147609362</v>
+        <v>10.20102826520735</v>
       </c>
       <c r="C188">
-        <v>11.73660938474787</v>
+        <v>5.656709320400188</v>
       </c>
       <c r="D188">
-        <v>8.145283049358955</v>
+        <v>8.431180255889418</v>
       </c>
       <c r="E188">
-        <v>8.545540534960763</v>
+        <v>10.62699644861208</v>
       </c>
       <c r="F188">
-        <v>5.531254855634349</v>
+        <v>14.14263457159561</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.54414300124946</v>
+        <v>10.23320378418346</v>
       </c>
       <c r="C189">
-        <v>11.81244126873503</v>
+        <v>5.681035185191771</v>
       </c>
       <c r="D189">
-        <v>8.191395744513395</v>
+        <v>8.445966835692895</v>
       </c>
       <c r="E189">
-        <v>8.572742548602818</v>
+        <v>10.69615014519006</v>
       </c>
       <c r="F189">
-        <v>5.55114179420621</v>
+        <v>14.22159126302018</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.61354349769025</v>
+        <v>10.26524079726551</v>
       </c>
       <c r="C190">
-        <v>11.8882183083727</v>
+        <v>5.705247918969517</v>
       </c>
       <c r="D190">
-        <v>8.23736629518579</v>
+        <v>8.460610209851509</v>
       </c>
       <c r="E190">
-        <v>8.599873109234796</v>
+        <v>10.76529231460142</v>
       </c>
       <c r="F190">
-        <v>5.570826983999637</v>
+        <v>14.30037845910138</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.68293307521282</v>
+        <v>10.29714414098203</v>
       </c>
       <c r="C191">
-        <v>11.96394068419646</v>
+        <v>5.729346826832437</v>
       </c>
       <c r="D191">
-        <v>8.283195203382235</v>
+        <v>8.475114512847641</v>
       </c>
       <c r="E191">
-        <v>8.626932431363512</v>
+        <v>10.8344230898319</v>
       </c>
       <c r="F191">
-        <v>5.590312771876647</v>
+        <v>14.37899769858101</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.75231184353148</v>
+        <v>10.32891857506757</v>
       </c>
       <c r="C192">
-        <v>12.03960857855241</v>
+        <v>5.753331273989943</v>
       </c>
       <c r="D192">
-        <v>8.328882969628443</v>
+        <v>8.48948378635567</v>
       </c>
       <c r="E192">
-        <v>8.653920729275828</v>
+        <v>10.90354260367205</v>
       </c>
       <c r="F192">
-        <v>5.609601476479153</v>
+        <v>14.45745051585345</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.82167991223148</v>
+        <v>10.36056878325591</v>
       </c>
       <c r="C193">
-        <v>12.11522217510664</v>
+        <v>5.777200683082684</v>
       </c>
       <c r="D193">
-        <v>8.374430092785886</v>
+        <v>8.503721986437068</v>
       </c>
       <c r="E193">
-        <v>8.680838217020286</v>
+        <v>10.97265098873038</v>
       </c>
       <c r="F193">
-        <v>5.628695388599915</v>
+        <v>14.535738441769</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.89103739080894</v>
+        <v>10.39209937679259</v>
       </c>
       <c r="C194">
-        <v>12.19078165904211</v>
+        <v>5.800954530268768</v>
       </c>
       <c r="D194">
-        <v>8.419837070174705</v>
+        <v>8.517832982548834</v>
       </c>
       <c r="E194">
-        <v>8.707685108382437</v>
+        <v>11.04174837748926</v>
       </c>
       <c r="F194">
-        <v>5.647596771440601</v>
+        <v>14.61386300346268</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10.96038438863298</v>
+        <v>10.42351489550213</v>
       </c>
       <c r="C195">
-        <v>12.26628721683792</v>
+        <v>5.824592343510507</v>
       </c>
       <c r="D195">
-        <v>8.465104397559605</v>
+        <v>8.531820557309535</v>
       </c>
       <c r="E195">
-        <v>8.734461616864319</v>
+        <v>11.11083490219522</v>
       </c>
       <c r="F195">
-        <v>5.666307860939167</v>
+        <v>14.69182572329141</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.02972101494231</v>
+        <v>10.45481980705443</v>
       </c>
       <c r="C196">
-        <v>12.34173903612486</v>
+        <v>5.848113702490411</v>
       </c>
       <c r="D196">
-        <v>8.51023256903318</v>
+        <v>8.545688413194785</v>
       </c>
       <c r="E196">
-        <v>8.7611679556788</v>
+        <v>11.17991069492111</v>
       </c>
       <c r="F196">
-        <v>5.684830866127534</v>
+        <v>14.76962811985435</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.09904737886744</v>
+        <v>10.48601851393146</v>
       </c>
       <c r="C197">
-        <v>12.41713730578632</v>
+        <v>5.871518233270447</v>
       </c>
       <c r="D197">
-        <v>8.555222077115566</v>
+        <v>8.559440172545099</v>
       </c>
       <c r="E197">
-        <v>8.787804337724273</v>
+        <v>11.24897588756334</v>
       </c>
       <c r="F197">
-        <v>5.703167969382855</v>
+        <v>14.84727170691537</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.16836358938169</v>
+        <v>10.51711535208505</v>
       </c>
       <c r="C198">
-        <v>12.49248221561412</v>
+        <v>5.89480560723803</v>
       </c>
       <c r="D198">
-        <v>8.6000734127031</v>
+        <v>8.573079377141626</v>
       </c>
       <c r="E198">
-        <v>8.814370975567103</v>
+        <v>11.3180306117898</v>
       </c>
       <c r="F198">
-        <v>5.721321326769918</v>
+        <v>14.9247579935135</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.23766975532868</v>
+        <v>10.54811458894585</v>
       </c>
       <c r="C199">
-        <v>12.56777395649609</v>
+        <v>5.917975540584039</v>
       </c>
       <c r="D199">
-        <v>8.64478706502385</v>
+        <v>8.586609493205849</v>
       </c>
       <c r="E199">
-        <v>8.840868081428196</v>
+        <v>11.38707499907937</v>
       </c>
       <c r="F199">
-        <v>5.73929306838193</v>
+        <v>15.00208848440943</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.30696598541662</v>
+        <v>10.57902043195861</v>
       </c>
       <c r="C200">
-        <v>12.64301272013416</v>
+        <v>5.94102779064192</v>
       </c>
       <c r="D200">
-        <v>8.689363521704122</v>
+        <v>8.60003391307465</v>
       </c>
       <c r="E200">
-        <v>8.867295867167833</v>
+        <v>11.4561091807038</v>
       </c>
       <c r="F200">
-        <v>5.75708529855031</v>
+        <v>15.07926467893695</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.37625238818904</v>
+        <v>10.60983702743136</v>
       </c>
       <c r="C201">
-        <v>12.71819869907267</v>
+        <v>5.96396215418315</v>
       </c>
       <c r="D201">
-        <v>8.733803268694903</v>
+        <v>8.613355954294398</v>
       </c>
       <c r="E201">
-        <v>8.893654544272929</v>
+        <v>11.52513328770694</v>
       </c>
       <c r="F201">
-        <v>5.774700096238415</v>
+        <v>15.15628807175077</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.44552907205397</v>
+        <v>10.64056845893137</v>
       </c>
       <c r="C202">
-        <v>12.79333208666482</v>
+        <v>5.986778464873991</v>
       </c>
       <c r="D202">
-        <v>8.7781067902795</v>
+        <v>8.626578863401209</v>
       </c>
       <c r="E202">
-        <v>8.919944323841149</v>
+        <v>11.59414745093572</v>
       </c>
       <c r="F202">
-        <v>5.792139515359433</v>
+        <v>15.23316015246266</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.51479614525705</v>
+        <v>10.67121875217416</v>
       </c>
       <c r="C203">
-        <v>12.86841307687284</v>
+        <v>6.009476595184199</v>
       </c>
       <c r="D203">
-        <v>8.822274569120271</v>
+        <v>8.639705818906657</v>
       </c>
       <c r="E203">
-        <v>8.946165416569427</v>
+        <v>11.66315180100478</v>
       </c>
       <c r="F203">
-        <v>5.80940558493743</v>
+        <v>15.3098824052346</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.584053715882</v>
+        <v>10.7017918775281</v>
       </c>
       <c r="C204">
-        <v>12.94344186440205</v>
+        <v>6.032056451084592</v>
       </c>
       <c r="D204">
-        <v>8.866307086165863</v>
+        <v>8.652739929966099</v>
       </c>
       <c r="E204">
-        <v>8.972318032739711</v>
+        <v>11.73214646830403</v>
       </c>
       <c r="F204">
-        <v>5.826500309571649</v>
+        <v>15.38645630940138</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.65330189186439</v>
+        <v>10.73229174811576</v>
       </c>
       <c r="C205">
-        <v>13.0184186444393</v>
+        <v>6.054517970885204</v>
       </c>
       <c r="D205">
-        <v>8.91020482070199</v>
+        <v>8.665684239056105</v>
       </c>
       <c r="E205">
-        <v>8.998402382209484</v>
+        <v>11.80113158301842</v>
       </c>
       <c r="F205">
-        <v>5.843425669690502</v>
+        <v>15.46288333859838</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.72254078096255</v>
+        <v>10.76272222223131</v>
       </c>
       <c r="C206">
-        <v>13.093343612754</v>
+        <v>6.076861132138196</v>
       </c>
       <c r="D206">
-        <v>8.953968250366149</v>
+        <v>8.678541726103425</v>
       </c>
       <c r="E206">
-        <v>9.024418674400163</v>
+        <v>11.87010727508608</v>
       </c>
       <c r="F206">
-        <v>5.860183621651302</v>
+        <v>15.53916496120124</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.79177049077412</v>
+        <v>10.79308710743267</v>
       </c>
       <c r="C207">
-        <v>13.16821696558872</v>
+        <v>6.099085932571635</v>
       </c>
       <c r="D207">
-        <v>8.997597851074842</v>
+        <v>8.691315306780306</v>
       </c>
       <c r="E207">
-        <v>9.050367118284987</v>
+        <v>11.93907367422412</v>
       </c>
       <c r="F207">
-        <v>5.876776098341704</v>
+        <v>15.61530264030077</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.86099112873192</v>
+        <v>10.82339015889293</v>
       </c>
       <c r="C208">
-        <v>13.24303889957466</v>
+        <v>6.12119239929179</v>
       </c>
       <c r="D208">
-        <v>9.041094097077091</v>
+        <v>8.704007834171136</v>
       </c>
       <c r="E208">
-        <v>9.076247922380151</v>
+        <v>12.00803090992892</v>
       </c>
       <c r="F208">
-        <v>5.893205009299879</v>
+        <v>15.69129783321087</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.93020280208938</v>
+        <v>10.85363508041637</v>
       </c>
       <c r="C209">
-        <v>13.31780961179126</v>
+        <v>6.143180589347802</v>
       </c>
       <c r="D209">
-        <v>9.084457460949956</v>
+        <v>8.71662210391538</v>
       </c>
       <c r="E209">
-        <v>9.102061294736174</v>
+        <v>12.07697911145207</v>
       </c>
       <c r="F209">
-        <v>5.909472240861436</v>
+        <v>15.76715199195805</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.99940561793621</v>
+        <v>10.88382552940867</v>
       </c>
       <c r="C210">
-        <v>13.39252929958122</v>
+        <v>6.165050584628616</v>
       </c>
       <c r="D210">
-        <v>9.127688413553106</v>
+        <v>8.729160852198685</v>
       </c>
       <c r="E210">
-        <v>9.127807442927375</v>
+        <v>12.14591840782107</v>
       </c>
       <c r="F210">
-        <v>5.92557965675644</v>
+        <v>15.84286656287316</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.06859968318304</v>
+        <v>10.91396511528692</v>
       </c>
       <c r="C211">
-        <v>13.46719816070986</v>
+        <v>6.186802493734088</v>
       </c>
       <c r="D211">
-        <v>9.170787424075465</v>
+        <v>8.741626756556631</v>
       </c>
       <c r="E211">
-        <v>9.153486574042759</v>
+        <v>12.21484892783059</v>
       </c>
       <c r="F211">
-        <v>5.941529098184182</v>
+        <v>15.91844298661137</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.1377851045629</v>
+        <v>10.94405739962891</v>
       </c>
       <c r="C212">
-        <v>13.54181639310401</v>
+        <v>6.208436447491873</v>
       </c>
       <c r="D212">
-        <v>9.21375496001386</v>
+        <v>8.754022441733035</v>
       </c>
       <c r="E212">
-        <v>9.17909889467807</v>
+        <v>12.28377080003418</v>
       </c>
       <c r="F212">
-        <v>5.957322383989241</v>
+        <v>15.99388269841358</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.20696198863955</v>
+        <v>10.97410590164147</v>
       </c>
       <c r="C213">
-        <v>13.61638419487043</v>
+        <v>6.229952600880083</v>
       </c>
       <c r="D213">
-        <v>9.25659148715647</v>
+        <v>8.766350477532162</v>
       </c>
       <c r="E213">
-        <v>9.204644610922655</v>
+        <v>12.35268415275894</v>
       </c>
       <c r="F213">
-        <v>5.97296131123763</v>
+        <v>16.06918712761431</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.27613044178991</v>
+        <v>11.00411409662533</v>
       </c>
       <c r="C214">
-        <v>13.69090176433024</v>
+        <v>6.251351130457897</v>
       </c>
       <c r="D214">
-        <v>9.299297469619834</v>
+        <v>8.778613378915042</v>
       </c>
       <c r="E214">
-        <v>9.230123928365453</v>
+        <v>12.42158911409013</v>
       </c>
       <c r="F214">
-        <v>5.988447655267345</v>
+        <v>16.14435769799545</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.34529057021515</v>
+        <v>11.0340854144186</v>
       </c>
       <c r="C215">
-        <v>13.76536930018501</v>
+        <v>6.272632231145917</v>
       </c>
       <c r="D215">
-        <v>9.341873369813523</v>
+        <v>8.79081361229423</v>
       </c>
       <c r="E215">
-        <v>9.255537052069126</v>
+        <v>12.49048581187609</v>
       </c>
       <c r="F215">
-        <v>6.003783169891865</v>
+        <v>16.21939582767708</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.41444247993839</v>
+        <v>11.06402324702426</v>
       </c>
       <c r="C216">
-        <v>13.83978700086963</v>
+        <v>6.293796118289526</v>
       </c>
       <c r="D216">
-        <v>9.384319648449743</v>
+        <v>8.802953593365686</v>
       </c>
       <c r="E216">
-        <v>9.280884186596252</v>
+        <v>12.55937437373571</v>
       </c>
       <c r="F216">
-        <v>6.01896958793997</v>
+        <v>16.29430292893272</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.4835862767961</v>
+        <v>11.09393094570316</v>
       </c>
       <c r="C217">
-        <v>13.91415506495555</v>
+        <v>6.314843024338733</v>
       </c>
       <c r="D217">
-        <v>9.426636764569004</v>
+        <v>8.815035686648798</v>
       </c>
       <c r="E217">
-        <v>9.30616553598526</v>
+        <v>12.62825492704294</v>
       </c>
       <c r="F217">
-        <v>6.03400862128789</v>
+        <v>16.36908040852671</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.55272206644808</v>
+        <v>11.1238118208477</v>
       </c>
       <c r="C218">
-        <v>13.98847369139179</v>
+        <v>6.335773200337439</v>
       </c>
       <c r="D218">
-        <v>9.46882517549844</v>
+        <v>8.827062211997287</v>
       </c>
       <c r="E218">
-        <v>9.331381303703063</v>
+        <v>12.69712759893761</v>
       </c>
       <c r="F218">
-        <v>6.04890196109146</v>
+        <v>16.44372966733286</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.62184995436847</v>
+        <v>11.15366914655229</v>
       </c>
       <c r="C219">
-        <v>14.06274307908662</v>
+        <v>6.356586913819879</v>
       </c>
       <c r="D219">
-        <v>9.510885336880255</v>
+        <v>8.839035442485528</v>
       </c>
       <c r="E219">
-        <v>9.356531692695187</v>
+        <v>12.76599251632614</v>
       </c>
       <c r="F219">
-        <v>6.063651278290877</v>
+        <v>16.51825210056469</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.6909700458474</v>
+        <v>11.18350616045458</v>
       </c>
       <c r="C220">
-        <v>14.13696342666693</v>
+        <v>6.377284445371344</v>
       </c>
       <c r="D220">
-        <v>9.552817702680889</v>
+        <v>8.850957603515212</v>
       </c>
       <c r="E220">
-        <v>9.381616905347306</v>
+        <v>12.83484980587206</v>
       </c>
       <c r="F220">
-        <v>6.078258223619594</v>
+        <v>16.59264909780581</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.76008244599535</v>
+        <v>11.21332606305323</v>
       </c>
       <c r="C221">
-        <v>14.21113493283137</v>
+        <v>6.397866091680304</v>
       </c>
       <c r="D221">
-        <v>9.594622725161543</v>
+        <v>8.862830879391089</v>
       </c>
       <c r="E221">
-        <v>9.406637143484454</v>
+        <v>12.90369959400596</v>
       </c>
       <c r="F221">
-        <v>6.092724427880799</v>
+        <v>16.66692204280391</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.82918725973416</v>
+        <v>11.24313202048254</v>
       </c>
       <c r="C222">
-        <v>14.28525779672779</v>
+        <v>6.418332166904779</v>
       </c>
       <c r="D222">
-        <v>9.636300854906002</v>
+        <v>8.874657411156825</v>
       </c>
       <c r="E222">
-        <v>9.431592608430844</v>
+        <v>12.97254200692183</v>
       </c>
       <c r="F222">
-        <v>6.107051502393512</v>
+        <v>16.74107231380608</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.89828459180337</v>
+        <v>11.27292716624314</v>
       </c>
       <c r="C223">
-        <v>14.35933221689653</v>
+        <v>6.43868299675426</v>
       </c>
       <c r="D223">
-        <v>9.677852540821346</v>
+        <v>8.886439296093734</v>
       </c>
       <c r="E223">
-        <v>9.456483500920074</v>
+        <v>13.04137717057435</v>
       </c>
       <c r="F223">
-        <v>6.121241038990818</v>
+        <v>16.81510128326797</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.96737454675897</v>
+        <v>11.30271460021509</v>
       </c>
       <c r="C224">
-        <v>14.43335839195905</v>
+        <v>6.458918919185148</v>
       </c>
       <c r="D224">
-        <v>9.71927823012116</v>
+        <v>8.898178592811197</v>
       </c>
       <c r="E224">
-        <v>9.481310021137876</v>
+        <v>13.11020521068619</v>
       </c>
       <c r="F224">
-        <v>6.135294610347043</v>
+        <v>16.88901031787217</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.03645722896917</v>
+        <v>11.33249739014098</v>
       </c>
       <c r="C225">
-        <v>14.50733652050959</v>
+        <v>6.479040284451577</v>
       </c>
       <c r="D225">
-        <v>9.76057836835046</v>
+        <v>8.909877320491118</v>
       </c>
       <c r="E225">
-        <v>9.506072368692712</v>
+        <v>13.17902625274147</v>
       </c>
       <c r="F225">
-        <v>6.149213770351534</v>
+        <v>16.96280077859488</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.10553274262285</v>
+        <v>11.36227857441739</v>
       </c>
       <c r="C226">
-        <v>14.58126680114314</v>
+        <v>6.499047454142824</v>
       </c>
       <c r="D226">
-        <v>9.801753399378521</v>
+        <v>8.921537458121611</v>
       </c>
       <c r="E226">
-        <v>9.530770742620023</v>
+        <v>13.24784042198907</v>
       </c>
       <c r="F226">
-        <v>6.163000054103662</v>
+        <v>17.03647402131944</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.17460119171937</v>
+        <v>11.39206116099462</v>
       </c>
       <c r="C227">
-        <v>14.65514943212282</v>
+        <v>6.518940800598295</v>
       </c>
       <c r="D227">
-        <v>9.842803765395091</v>
+        <v>8.933160948238259</v>
       </c>
       <c r="E227">
-        <v>9.55540534137632</v>
+        <v>13.31664784344573</v>
       </c>
       <c r="F227">
-        <v>6.176654978296675</v>
+        <v>17.11003139574139</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.24366268007163</v>
+        <v>11.42184812790236</v>
       </c>
       <c r="C228">
-        <v>14.72898461162799</v>
+        <v>6.538720706417559</v>
       </c>
       <c r="D228">
-        <v>9.883729906931507</v>
+        <v>8.944749697527428</v>
       </c>
       <c r="E228">
-        <v>9.57997636282767</v>
+        <v>13.38544864189093</v>
       </c>
       <c r="F228">
-        <v>6.190180041506794</v>
+        <v>17.18347424592104</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>13.31271731130602</v>
+        <v>11.45164242697207</v>
       </c>
       <c r="C229">
-        <v>14.8027725377315</v>
+        <v>6.558387563944728</v>
       </c>
       <c r="D229">
-        <v>9.92453226284646</v>
+        <v>8.95630557576404</v>
       </c>
       <c r="E229">
-        <v>9.604484004286759</v>
+        <v>13.45424294187157</v>
       </c>
       <c r="F229">
-        <v>6.203576724190076</v>
+        <v>17.25680391029475</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>13.3817651888806</v>
+        <v>11.48144698250511</v>
       </c>
       <c r="C230">
-        <v>14.87651340827687</v>
+        <v>6.577941774325513</v>
       </c>
       <c r="D230">
-        <v>9.965211270334885</v>
+        <v>8.967830418455897</v>
       </c>
       <c r="E230">
-        <v>9.62892846247243</v>
+        <v>13.52303086770269</v>
       </c>
       <c r="F230">
-        <v>6.216846489129747</v>
+        <v>17.33002172276713</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>13.45080641605297</v>
+        <v>11.5112646911733</v>
       </c>
       <c r="C231">
-        <v>14.95020742088849</v>
+        <v>6.597383748283916</v>
       </c>
       <c r="D231">
-        <v>10.00576736494288</v>
+        <v>8.979326028497765</v>
       </c>
       <c r="E231">
-        <v>9.653309933517994</v>
+        <v>13.5918125434647</v>
       </c>
       <c r="F231">
-        <v>6.229990781630646</v>
+        <v>17.40312901056633</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>13.51984109589472</v>
+        <v>11.54109842621571</v>
       </c>
       <c r="C232">
-        <v>15.02385477300317</v>
+        <v>6.61671390382759</v>
       </c>
       <c r="D232">
-        <v>10.04620098055177</v>
+        <v>8.990794174912249</v>
       </c>
       <c r="E232">
-        <v>9.677628612954223</v>
+        <v>13.66058809300867</v>
       </c>
       <c r="F232">
-        <v>6.243011029521708</v>
+        <v>17.47612709567486</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>13.58886933129291</v>
+        <v>11.57095103609016</v>
       </c>
       <c r="C233">
-        <v>15.09745566202563</v>
+        <v>6.63593266544359</v>
       </c>
       <c r="D233">
-        <v>10.08651254939485</v>
+        <v>9.002236594600502</v>
       </c>
       <c r="E233">
-        <v>9.7018846957303</v>
+        <v>13.7293576399538</v>
       </c>
       <c r="F233">
-        <v>6.255908643673432</v>
+        <v>17.54901729459736</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>13.65789122496744</v>
+        <v>11.60082534387773</v>
       </c>
       <c r="C234">
-        <v>15.17101028489518</v>
+        <v>6.655040465287885</v>
       </c>
       <c r="D234">
-        <v>10.12670250206451</v>
+        <v>9.013654994776079</v>
       </c>
       <c r="E234">
-        <v>9.726078376213222</v>
+        <v>13.79812130768684</v>
       </c>
       <c r="F234">
-        <v>6.268685018083731</v>
+        <v>17.6218009191944</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>13.72690687943903</v>
+        <v>11.63072415176179</v>
       </c>
       <c r="C235">
-        <v>15.24451883837648</v>
+        <v>6.674037742513084</v>
       </c>
       <c r="D235">
-        <v>10.16677126750265</v>
+        <v>9.025051051592056</v>
       </c>
       <c r="E235">
-        <v>9.750209848169693</v>
+        <v>13.8668792193644</v>
       </c>
       <c r="F235">
-        <v>6.281341529907467</v>
+        <v>17.69447927498546</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>13.79591639704246</v>
+        <v>11.66065023954086</v>
       </c>
       <c r="C236">
-        <v>15.31798151907694</v>
+        <v>6.69292494258531</v>
       </c>
       <c r="D236">
-        <v>10.20671927301653</v>
+        <v>9.036426411177429</v>
       </c>
       <c r="E236">
-        <v>9.774279304770923</v>
+        <v>13.93563149791957</v>
       </c>
       <c r="F236">
-        <v>6.293879540017097</v>
+        <v>17.76705366241042</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>13.86491987993013</v>
+        <v>11.69060636460582</v>
       </c>
       <c r="C237">
-        <v>15.39139852337886</v>
+        <v>6.711702517197288</v>
       </c>
       <c r="D237">
-        <v>10.24654694428216</v>
+        <v>9.047782692619489</v>
       </c>
       <c r="E237">
-        <v>9.798286938564996</v>
+        <v>14.00437826606061</v>
       </c>
       <c r="F237">
-        <v>6.306300392993034</v>
+        <v>17.83952537658408</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>13.93391743008672</v>
+        <v>11.72059526477102</v>
       </c>
       <c r="C238">
-        <v>15.46477004728181</v>
+        <v>6.73037092394627</v>
       </c>
       <c r="D238">
-        <v>10.28625470534061</v>
+        <v>9.059121486544694</v>
       </c>
       <c r="E238">
-        <v>9.822232941538127</v>
+        <v>14.07311964625743</v>
       </c>
       <c r="F238">
-        <v>6.318605417217436</v>
+        <v>17.91189570764777</v>
       </c>
     </row>
   </sheetData>
